--- a/10_Java/学习笔记_Spring_SpringBoot.xlsx
+++ b/10_Java/学习笔记_Spring_SpringBoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,9 @@
     <sheet name="语法" sheetId="5" r:id="rId5"/>
     <sheet name="示例" sheetId="6" r:id="rId6"/>
     <sheet name="总结" sheetId="4" r:id="rId7"/>
-    <sheet name="扩展" sheetId="9" r:id="rId8"/>
-    <sheet name="参考" sheetId="7" r:id="rId9"/>
+    <sheet name="问题" sheetId="10" r:id="rId8"/>
+    <sheet name="扩展" sheetId="9" r:id="rId9"/>
+    <sheet name="参考" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="1071">
   <si>
     <r>
       <rPr>
@@ -7052,10 +7053,6 @@
     <t>被动生效</t>
   </si>
   <si>
-    <t>我们首先来看下我们熟悉的方式，通过SpringBoot的SPI的机制来去加载我们的starter。我们需要在META-INF下新建一个spring.factories文件key为org.springframework.boot.autoconfigure.EnableAutoConfiguration，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> value是我们的SmsAutoConfiguration 全限定名（记得去除前后的空格，否则会不生效）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7955,13 +7952,1027 @@
   </si>
   <si>
     <t>[INFO] Final Memory: 47M/334M</t>
+  </si>
+  <si>
+    <t># Auto Configure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  com.baomidou.mybatisplus.autoconfigure.MybatisPlusAutoConfiguration</t>
+  </si>
+  <si>
+    <r>
+      <t>org.springframework.boot.autoconfigure.EnableAutoConfiguration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  com.baomidou.mybatisplus.autoconfigure.IdentifierGeneratorAutoConfiguration,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  com.baomidou.mybatisplus.autoconfigure.MybatisPlusLanguageDriverAutoConfiguration,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  com.baomidou.mybatisplus.autoconfigure.SafetyEncryptProcessor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mybatis-plus自动配置（META-INF/spring.factories）中的内容：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>org.springframework.boot.env.EnvironmentPostProcessor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springBoot的EnvironmentPostProcessor使用</t>
+  </si>
+  <si>
+    <r>
+      <t>springBoot的EnvironmentPostProcessor使用，根据生产环境，加载指定环境所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>properties配置文件，并放入自定义工具类PropertiesUtil</t>
+    </r>
+  </si>
+  <si>
+    <t>前言</t>
+  </si>
+  <si>
+    <t>在进行公共组件封装时 根据配置的环境，决定采用不同的配置文件，并且将其加载到自定义的PropertiesUtil工具类中</t>
+  </si>
+  <si>
+    <t>一、EnvironmentPostProcessor是什么？</t>
+  </si>
+  <si>
+    <t>二、使用步骤</t>
+  </si>
+  <si>
+    <t>1.实现EnvironmentPostProcessor</t>
+  </si>
+  <si>
+    <t>public class Configs implements EnvironmentPostProcessor, Ordered {</t>
+  </si>
+  <si>
+    <t>private static final Integer POST_PROCESSOR_ORDER = Integer.MIN_VALUE+10;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void postProcessEnvironment(ConfigurableEnvironment environment, SpringApplication application) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public int getOrder() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return this.POST_PROCESSOR_ORDER+1;</t>
+  </si>
+  <si>
+    <t>SpringBoot支持动态的读取文件，留下的扩展接口org.springframework.boot.env.EnvironmentPostProcessor。这个接口是spring包下的，使用这个进行配置文件的集中管理，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而不需要每个项目都去配置配置文件。这种方法也是springboot框架留下的一个扩展（可以自己去扩展）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）首先，要实现springboot提供的EnvironmentPostProcessor接口，并且实现它的postProcessEnvironment方法，postProcessEnvironment就是我们具体写逻辑处理的地方。</t>
+  </si>
+  <si>
+    <t>3）实现Ordered的getOrder方法 并 在前面定义的默认顺序加一this.POST_PROCESSOR_ORDER+1</t>
+  </si>
+  <si>
+    <t>2）同时继承spring的Ordered接口来指定优先级，因为springboot是已经有默认的实现了，我们的扩展需要在它们执行之后执行 要不然ConfigurableEnvironment 参数中有些数据是没有的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认最后一执行的顺序是 Integer.MIN_VALUE+10，我们可以写一个静态 常量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.读入数据</t>
+  </si>
+  <si>
+    <t>主逻辑代码：</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public void postProcessEnvironment(ConfigurableEnvironment environment, SpringApplication application) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MutablePropertySources propertySources = environment.getPropertySources();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //这里是获取我们指定的当前激活的配置文件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        String[] profiles = environment.getActiveProfiles();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Properties prop = getConfig(profiles);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        propertySources.addLast(new PropertiesPropertySource("allProp",prop));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for (PropertySource&lt;?&gt; propertySource : propertySources) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            //是键值对的properties 才放入propertiesUtil工具类中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if(propertySource.getSource() instanceof Map){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Map map = (Map) propertySource.getSource();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                for (Object key : map.keySet()) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    //写入我们定义的工具类缓存中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    PropertiesUtil.getProperties().put(keyStr, value.toString());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t>加载配置文件代码getConfig</t>
+  </si>
+  <si>
+    <t>private Properties getConfig(String[] profiles){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        PathMatchingResourcePatternResolver resolver = new PathMatchingResourcePatternResolver();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        List&lt;Resource&gt; resourceList = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        getResource(resolver,resourceList,"classpath*:/*.properties");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        getResource(resolver,resourceList,"classpath*:/log.config");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if(profiles!=null){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            for (int i = 0; i &lt; profiles.length; i++) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                String p = "classpath*:/config/"+profiles[i]+"/*.properties";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                getResource(resolver,resourceList,p);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        try {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            //spring properties管理对象  将properties加载处理进ioc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PropertiesFactoryBean config = new PropertiesFactoryBean();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            config.setLocations(resourceList.toArray(new Resource[]{}));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            config.afterPropertiesSet();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return config.getObject();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        } catch (IOException e) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            throw new RuntimeException(e);</t>
+  </si>
+  <si>
+    <t>根据path获取Resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                resourceList.add(resource);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            logger.error("",e);</t>
+  </si>
+  <si>
+    <t>private void getResource(PathMatchingResourcePatternResolver resolver,List&lt;Resource&gt; resourceList,String path){</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     try {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         Resource[] resources = resolver.getResources(path);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         for (Resource resource : resources) {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      } catch (IOException e) {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.配置进spring.factories</t>
+  </si>
+  <si>
+    <t>在resources 下 META-INF文件夹下加上 spring.factories文件，配置org.springframework.boot.env.EnvironmentPostProcessor</t>
+  </si>
+  <si>
+    <t>注意事项</t>
+  </si>
+  <si>
+    <t>在resources 下 META-INF文件夹下加上 spring.factories文件 并且将类路径配置到org.springframework.boot.env.EnvironmentPostProcessor</t>
+  </si>
+  <si>
+    <t>我们首先来看下我们熟悉的方式，通过SpringBoot的SPI的机制来去加载我们的starter。我们需要在META-INF下新建一个spring.factories文件key为org.springframework.boot.autoconfigure.EnableAutoConfiguration，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目如何导入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>jar</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是我们自己的Maven项目，可以先把jar包安装到本地库，再引用，这样能保证最新：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先使用Maven命令清除、打包、安装命令将其安装到本地Maven库：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mvn clean package install</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后在其他工程中引入：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dependency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>groupId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;org.breezee&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>groupId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;mypeach&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;1.0.1&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dependency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>不过一般公司也有一个依赖库，我们需要在Maven配置文件中配置公司依赖库，然后直接在项目中引用就好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些开源的依赖库，我们一般在Maven中心库查找依赖并引入。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从本地或远程依赖库引入（常用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.spring-boot maven打包，一般pom.xml文件里会加</t>
+  </si>
+  <si>
+    <t>&lt;plugin&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;artifactId&gt;spring-boot-maven-plugin&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/plugin&gt;</t>
+  </si>
+  <si>
+    <t>2.引起问题，程序包不存在。</t>
+  </si>
+  <si>
+    <t>3.解决办法，如果A子模块包依赖了B子模块包，在B子模块的pom文件，加入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;configuration&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;skip&gt;true&lt;/skip&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/configuration&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>这样打的jar里会多一个目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BOOT-INF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还可以加入版本号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>plugin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>groupId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;org.springframework.boot&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>groupId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;spring-boot-maven-plugin&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;2.6.6&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>skip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;true&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>skip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>plugin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>spring-boot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="21"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目打包时候出现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="21"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>boot-inf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="21"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件夹，导致其他项目引入后运行报未找到包问题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#安装JAR到本地MVN仓库。记得每次修改完都要执行这一句，否则本地库一直不会更新！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mvn install</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>记得每次修改源包，都要执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mvn install</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更新本地仓库！！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="78">
+  <fonts count="93">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8513,6 +9524,114 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000080"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000080"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="21"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="GE Inspira Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="21"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -8592,7 +9711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8794,12 +9913,6 @@
     <xf numFmtId="0" fontId="71" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="72" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8814,6 +9927,42 @@
     </xf>
     <xf numFmtId="0" fontId="77" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="71" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="82" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="89" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9893,6 +11042,61 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="https://img-blog.csdnimg.cn/2021030415114276.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="60940950"/>
+          <a:ext cx="6991350" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10748,6 +11952,317 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E58"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.25">
+      <c r="A1" s="30" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25.5">
+      <c r="A4" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75">
+      <c r="B5" s="24" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75">
+      <c r="B6" s="24" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75">
+      <c r="B7" s="24" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75">
+      <c r="B8" s="24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="B9" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="B10" s="24" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75">
+      <c r="B11" s="24" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
+      <c r="B12" s="24" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75">
+      <c r="B13" s="24" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75">
+      <c r="B14" s="24" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75">
+      <c r="B15" s="24" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75">
+      <c r="B16" s="24" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.75">
+      <c r="B17" s="24" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75">
+      <c r="B18" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="2:5" ht="15.75">
+      <c r="B19" s="24" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15.75">
+      <c r="B20" s="24" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15.75">
+      <c r="B21" s="24" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.75">
+      <c r="B22" s="24" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15.75">
+      <c r="B23" s="24" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15.75">
+      <c r="B24" s="24" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15.75">
+      <c r="B25" s="24" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="15.75">
+      <c r="B26" s="24" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="15.75">
+      <c r="B27" s="24" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="15.75">
+      <c r="B28" s="24" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="15.75">
+      <c r="B29" s="24" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="15.75">
+      <c r="B30" s="24" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="15.75">
+      <c r="B31" s="24" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="15.75">
+      <c r="B32" s="24" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="15.75">
+      <c r="B33" s="24" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="15.75">
+      <c r="B34" s="24" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="15.75">
+      <c r="B35" s="24" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="15.75">
+      <c r="B36" s="24" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="15.75">
+      <c r="B37" s="24" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="15.75">
+      <c r="B38" s="24" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="15.75">
+      <c r="B39" s="24" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="15.75">
+      <c r="B40" s="24" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="15.75">
+      <c r="B41" s="24" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="15.75">
+      <c r="B42" s="24" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="15.75">
+      <c r="B43" s="24" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="15.75">
+      <c r="B44" s="24" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="15.75">
+      <c r="B45" s="24" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="15.75">
+      <c r="B46" s="24" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="15.75">
+      <c r="B47" s="24" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="15.75">
+      <c r="B48" s="24" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="15.75">
+      <c r="B49" s="24" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="15.75">
+      <c r="B50" s="24" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="15.75">
+      <c r="B51" s="24" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="15.75">
+      <c r="B52" s="24" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="15.75">
+      <c r="B53" s="24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="15.75">
+      <c r="B54" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+    </row>
+    <row r="55" spans="2:4" ht="15.75">
+      <c r="B55" s="24" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="15.75">
+      <c r="B56" s="24" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="15.75">
+      <c r="B57" s="24" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="15.75">
+      <c r="B58" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -14224,7 +15739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y210"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -14232,110 +15747,110 @@
   <sheetData>
     <row r="1" spans="1:11" ht="26.25">
       <c r="A1" s="83" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="B2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15">
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="93" t="s">
+        <v>847</v>
+      </c>
+      <c r="C6" s="93"/>
+      <c r="D6" s="86" t="s">
         <v>848</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87" t="s">
+      <c r="E6" s="93" t="s">
         <v>849</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="94" t="s">
         <v>850</v>
       </c>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" s="88" t="s">
+      <c r="C7" s="94"/>
+      <c r="D7" s="87" t="s">
         <v>851</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89" t="s">
+      <c r="E7" s="94" t="s">
         <v>852</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="94" t="s">
         <v>853</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8" s="88" t="s">
+      <c r="C8" s="94"/>
+      <c r="D8" s="88" t="s">
         <v>854</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="90" t="s">
+      <c r="E8" s="94" t="s">
         <v>855</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="94" t="s">
         <v>856</v>
       </c>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="88" t="s">
+      <c r="C9" s="94"/>
+      <c r="D9" s="87" t="s">
         <v>857</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89" t="s">
+      <c r="E9" s="94" t="s">
         <v>858</v>
       </c>
-      <c r="E9" s="88" t="s">
-        <v>859</v>
-      </c>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
     </row>
     <row r="10" spans="1:11" ht="21.75">
-      <c r="B10" s="91" t="s">
-        <v>862</v>
+      <c r="B10" s="89" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="18" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -14344,30 +15859,30 @@
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="B13" s="80" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="B14" s="80" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="K16" s="80"/>
     </row>
     <row r="37" spans="2:2" ht="21.75">
-      <c r="B37" s="91" t="s">
+      <c r="B37" s="89" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="15">
+      <c r="B38" s="90" t="s">
         <v>863</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="15">
-      <c r="B38" s="92" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="15">
       <c r="B39" s="84" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="15">
@@ -14375,43 +15890,43 @@
     </row>
     <row r="55" spans="2:25" ht="15">
       <c r="B55" s="84" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="56" spans="2:25" ht="15">
-      <c r="B56" s="92" t="s">
-        <v>867</v>
+      <c r="B56" s="90" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="57" spans="2:25" ht="15">
       <c r="B57" s="84" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="59" spans="2:25" ht="21.75">
-      <c r="B59" s="91" t="s">
-        <v>869</v>
+      <c r="B59" s="89" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="60" spans="2:25" ht="15">
       <c r="B60" s="84" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="61" spans="2:25" ht="15">
-      <c r="B61" s="92" t="s">
-        <v>870</v>
-      </c>
-      <c r="O61" s="92" t="s">
-        <v>912</v>
+      <c r="B61" s="90" t="s">
+        <v>869</v>
+      </c>
+      <c r="O61" s="90" t="s">
+        <v>911</v>
       </c>
       <c r="S61" s="84" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="62" spans="2:25">
       <c r="B62" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
@@ -14425,7 +15940,7 @@
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
       <c r="O62" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="P62" s="18"/>
       <c r="Q62" s="18"/>
@@ -14440,7 +15955,7 @@
     </row>
     <row r="63" spans="2:25">
       <c r="B63" s="18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="18"/>
@@ -14454,7 +15969,7 @@
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
       <c r="O63" s="18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P63" s="18"/>
       <c r="Q63" s="18"/>
@@ -14469,7 +15984,7 @@
     </row>
     <row r="64" spans="2:25">
       <c r="B64" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
@@ -14483,7 +15998,7 @@
       <c r="L64" s="18"/>
       <c r="M64" s="18"/>
       <c r="O64" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P64" s="18"/>
       <c r="Q64" s="18"/>
@@ -14498,7 +16013,7 @@
     </row>
     <row r="65" spans="2:25">
       <c r="B65" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
@@ -14512,7 +16027,7 @@
       <c r="L65" s="18"/>
       <c r="M65" s="18"/>
       <c r="O65" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="P65" s="18"/>
       <c r="Q65" s="18"/>
@@ -14527,7 +16042,7 @@
     </row>
     <row r="66" spans="2:25">
       <c r="B66" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="18"/>
@@ -14541,7 +16056,7 @@
       <c r="L66" s="18"/>
       <c r="M66" s="18"/>
       <c r="O66" s="85" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="P66" s="85"/>
       <c r="Q66" s="85"/>
@@ -14556,7 +16071,7 @@
     </row>
     <row r="67" spans="2:25">
       <c r="B67" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
@@ -14570,7 +16085,7 @@
       <c r="L67" s="18"/>
       <c r="M67" s="18"/>
       <c r="O67" s="85" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="P67" s="85"/>
       <c r="Q67" s="85"/>
@@ -14585,7 +16100,7 @@
     </row>
     <row r="68" spans="2:25">
       <c r="B68" s="18" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
@@ -14599,7 +16114,7 @@
       <c r="L68" s="18"/>
       <c r="M68" s="18"/>
       <c r="O68" s="85" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="P68" s="85"/>
       <c r="Q68" s="85"/>
@@ -14614,7 +16129,7 @@
     </row>
     <row r="69" spans="2:25">
       <c r="B69" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
@@ -14628,7 +16143,7 @@
       <c r="L69" s="18"/>
       <c r="M69" s="18"/>
       <c r="O69" s="85" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="P69" s="85"/>
       <c r="Q69" s="85"/>
@@ -14643,7 +16158,7 @@
     </row>
     <row r="70" spans="2:25">
       <c r="B70" s="18" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
@@ -14657,7 +16172,7 @@
       <c r="L70" s="18"/>
       <c r="M70" s="18"/>
       <c r="O70" s="85" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="P70" s="85"/>
       <c r="Q70" s="85"/>
@@ -14672,7 +16187,7 @@
     </row>
     <row r="71" spans="2:25">
       <c r="B71" s="18" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -14686,7 +16201,7 @@
       <c r="L71" s="18"/>
       <c r="M71" s="18"/>
       <c r="O71" s="85" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="P71" s="85"/>
       <c r="Q71" s="85"/>
@@ -14701,7 +16216,7 @@
     </row>
     <row r="72" spans="2:25">
       <c r="B72" s="18" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C72" s="18"/>
       <c r="D72" s="18"/>
@@ -14715,7 +16230,7 @@
       <c r="L72" s="18"/>
       <c r="M72" s="18"/>
       <c r="O72" s="85" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="P72" s="85"/>
       <c r="Q72" s="85"/>
@@ -14730,7 +16245,7 @@
     </row>
     <row r="73" spans="2:25">
       <c r="B73" s="18" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
@@ -14744,9 +16259,9 @@
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
       <c r="O73" s="85" t="s">
-        <v>805</v>
-      </c>
-      <c r="P73" s="93"/>
+        <v>804</v>
+      </c>
+      <c r="P73" s="91"/>
       <c r="Q73" s="18"/>
       <c r="R73" s="18"/>
       <c r="S73" s="18"/>
@@ -14759,7 +16274,7 @@
     </row>
     <row r="74" spans="2:25">
       <c r="B74" s="18" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
@@ -14772,10 +16287,10 @@
       <c r="K74" s="18"/>
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
-      <c r="O74" s="93" t="s">
-        <v>920</v>
-      </c>
-      <c r="P74" s="93"/>
+      <c r="O74" s="91" t="s">
+        <v>919</v>
+      </c>
+      <c r="P74" s="91"/>
       <c r="Q74" s="18"/>
       <c r="R74" s="18"/>
       <c r="S74" s="18"/>
@@ -14788,7 +16303,7 @@
     </row>
     <row r="75" spans="2:25">
       <c r="B75" s="18" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
@@ -14801,10 +16316,10 @@
       <c r="K75" s="18"/>
       <c r="L75" s="18"/>
       <c r="M75" s="18"/>
-      <c r="O75" s="93" t="s">
-        <v>921</v>
-      </c>
-      <c r="P75" s="93"/>
+      <c r="O75" s="91" t="s">
+        <v>920</v>
+      </c>
+      <c r="P75" s="91"/>
       <c r="Q75" s="18"/>
       <c r="R75" s="18"/>
       <c r="S75" s="18"/>
@@ -14817,7 +16332,7 @@
     </row>
     <row r="76" spans="2:25">
       <c r="B76" s="18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
@@ -14830,10 +16345,10 @@
       <c r="K76" s="18"/>
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
-      <c r="O76" s="93" t="s">
-        <v>817</v>
-      </c>
-      <c r="P76" s="93"/>
+      <c r="O76" s="91" t="s">
+        <v>816</v>
+      </c>
+      <c r="P76" s="91"/>
       <c r="Q76" s="18"/>
       <c r="R76" s="18"/>
       <c r="S76" s="18"/>
@@ -14846,7 +16361,7 @@
     </row>
     <row r="77" spans="2:25">
       <c r="B77" s="18" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C77" s="18"/>
       <c r="D77" s="18"/>
@@ -14859,10 +16374,10 @@
       <c r="K77" s="18"/>
       <c r="L77" s="18"/>
       <c r="M77" s="18"/>
-      <c r="O77" s="93" t="s">
-        <v>818</v>
-      </c>
-      <c r="P77" s="93"/>
+      <c r="O77" s="91" t="s">
+        <v>817</v>
+      </c>
+      <c r="P77" s="91"/>
       <c r="Q77" s="18"/>
       <c r="R77" s="18"/>
       <c r="S77" s="18"/>
@@ -14875,7 +16390,7 @@
     </row>
     <row r="78" spans="2:25">
       <c r="B78" s="85" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C78" s="18"/>
       <c r="D78" s="18"/>
@@ -14888,10 +16403,10 @@
       <c r="K78" s="18"/>
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
-      <c r="O78" s="93" t="s">
-        <v>808</v>
-      </c>
-      <c r="P78" s="93"/>
+      <c r="O78" s="91" t="s">
+        <v>807</v>
+      </c>
+      <c r="P78" s="91"/>
       <c r="Q78" s="18"/>
       <c r="R78" s="18"/>
       <c r="S78" s="18"/>
@@ -14929,7 +16444,7 @@
     </row>
     <row r="80" spans="2:25">
       <c r="B80" s="18" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
@@ -14943,7 +16458,7 @@
       <c r="L80" s="18"/>
       <c r="M80" s="18"/>
       <c r="O80" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="P80" s="18"/>
       <c r="Q80" s="18"/>
@@ -14958,7 +16473,7 @@
     </row>
     <row r="81" spans="2:25">
       <c r="B81" s="18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
@@ -14972,7 +16487,7 @@
       <c r="L81" s="18"/>
       <c r="M81" s="18"/>
       <c r="O81" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="P81" s="18"/>
       <c r="Q81" s="18"/>
@@ -14987,7 +16502,7 @@
     </row>
     <row r="82" spans="2:25">
       <c r="B82" s="18" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
@@ -15001,7 +16516,7 @@
       <c r="L82" s="18"/>
       <c r="M82" s="18"/>
       <c r="O82" s="18" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="P82" s="18"/>
       <c r="Q82" s="18"/>
@@ -15016,7 +16531,7 @@
     </row>
     <row r="83" spans="2:25">
       <c r="B83" s="18" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
@@ -15030,7 +16545,7 @@
       <c r="L83" s="18"/>
       <c r="M83" s="18"/>
       <c r="O83" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="P83" s="18"/>
       <c r="Q83" s="18"/>
@@ -15045,7 +16560,7 @@
     </row>
     <row r="84" spans="2:25">
       <c r="B84" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C84" s="18"/>
       <c r="D84" s="18"/>
@@ -15059,7 +16574,7 @@
       <c r="L84" s="18"/>
       <c r="M84" s="18"/>
       <c r="O84" s="19" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="P84" s="18"/>
       <c r="Q84" s="18"/>
@@ -15086,7 +16601,7 @@
       <c r="L85" s="18"/>
       <c r="M85" s="18"/>
       <c r="O85" s="18" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="P85" s="18"/>
       <c r="Q85" s="18"/>
@@ -15101,7 +16616,7 @@
     </row>
     <row r="86" spans="2:25">
       <c r="B86" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="18"/>
@@ -15115,7 +16630,7 @@
       <c r="L86" s="18"/>
       <c r="M86" s="18"/>
       <c r="O86" s="18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P86" s="18"/>
       <c r="Q86" s="18"/>
@@ -15130,7 +16645,7 @@
     </row>
     <row r="87" spans="2:25">
       <c r="B87" s="18" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C87" s="18"/>
       <c r="D87" s="18"/>
@@ -15157,7 +16672,7 @@
     </row>
     <row r="88" spans="2:25">
       <c r="B88" s="18" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C88" s="18"/>
       <c r="D88" s="18"/>
@@ -15171,7 +16686,7 @@
       <c r="L88" s="18"/>
       <c r="M88" s="18"/>
       <c r="O88" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="P88" s="18"/>
       <c r="Q88" s="18"/>
@@ -15186,7 +16701,7 @@
     </row>
     <row r="89" spans="2:25">
       <c r="B89" s="18" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C89" s="18"/>
       <c r="D89" s="18"/>
@@ -15200,7 +16715,7 @@
       <c r="L89" s="18"/>
       <c r="M89" s="18"/>
       <c r="O89" s="19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="P89" s="18"/>
       <c r="Q89" s="18"/>
@@ -15215,7 +16730,7 @@
     </row>
     <row r="90" spans="2:25">
       <c r="B90" s="18" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C90" s="18"/>
       <c r="D90" s="18"/>
@@ -15229,7 +16744,7 @@
       <c r="L90" s="18"/>
       <c r="M90" s="18"/>
       <c r="O90" s="19" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="P90" s="18"/>
       <c r="Q90" s="18"/>
@@ -15244,7 +16759,7 @@
     </row>
     <row r="91" spans="2:25">
       <c r="B91" s="18" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="18"/>
@@ -15258,7 +16773,7 @@
       <c r="L91" s="18"/>
       <c r="M91" s="18"/>
       <c r="O91" s="19" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="P91" s="18"/>
       <c r="Q91" s="18"/>
@@ -15273,7 +16788,7 @@
     </row>
     <row r="92" spans="2:25">
       <c r="B92" s="18" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C92" s="18"/>
       <c r="D92" s="18"/>
@@ -15300,7 +16815,7 @@
     </row>
     <row r="93" spans="2:25">
       <c r="B93" s="18" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C93" s="18"/>
       <c r="D93" s="18"/>
@@ -15314,7 +16829,7 @@
       <c r="L93" s="18"/>
       <c r="M93" s="18"/>
       <c r="O93" s="18" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="P93" s="18"/>
       <c r="Q93" s="18"/>
@@ -15341,7 +16856,7 @@
       <c r="L94" s="18"/>
       <c r="M94" s="18"/>
       <c r="O94" s="18" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="P94" s="18"/>
       <c r="Q94" s="18"/>
@@ -15356,7 +16871,7 @@
     </row>
     <row r="95" spans="2:25">
       <c r="B95" s="18" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C95" s="18"/>
       <c r="D95" s="18"/>
@@ -15385,7 +16900,7 @@
     </row>
     <row r="96" spans="2:25">
       <c r="B96" s="18" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C96" s="18"/>
       <c r="D96" s="18"/>
@@ -15399,7 +16914,7 @@
       <c r="L96" s="18"/>
       <c r="M96" s="18"/>
       <c r="O96" s="18" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="P96" s="18"/>
       <c r="Q96" s="18"/>
@@ -15414,7 +16929,7 @@
     </row>
     <row r="97" spans="2:25">
       <c r="B97" s="18" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C97" s="18"/>
       <c r="D97" s="18"/>
@@ -15428,7 +16943,7 @@
       <c r="L97" s="18"/>
       <c r="M97" s="18"/>
       <c r="O97" s="18" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="P97" s="18"/>
       <c r="Q97" s="18"/>
@@ -15457,7 +16972,7 @@
       <c r="L98" s="18"/>
       <c r="M98" s="18"/>
       <c r="O98" s="18" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="P98" s="18"/>
       <c r="Q98" s="18"/>
@@ -15501,7 +17016,7 @@
     </row>
     <row r="100" spans="2:25">
       <c r="B100" s="18" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C100" s="18"/>
       <c r="D100" s="18"/>
@@ -15515,7 +17030,7 @@
       <c r="L100" s="18"/>
       <c r="M100" s="18"/>
       <c r="O100" s="18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="P100" s="18"/>
       <c r="Q100" s="18"/>
@@ -15544,7 +17059,7 @@
       <c r="L101" s="18"/>
       <c r="M101" s="18"/>
       <c r="O101" s="18" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="P101" s="18"/>
       <c r="Q101" s="18"/>
@@ -15559,7 +17074,7 @@
     </row>
     <row r="102" spans="2:25">
       <c r="B102" s="18" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C102" s="18"/>
       <c r="D102" s="18"/>
@@ -15573,7 +17088,7 @@
       <c r="L102" s="18"/>
       <c r="M102" s="18"/>
       <c r="O102" s="18" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="P102" s="18"/>
       <c r="Q102" s="18"/>
@@ -15602,7 +17117,7 @@
       <c r="L103" s="18"/>
       <c r="M103" s="18"/>
       <c r="O103" s="18" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="P103" s="18"/>
       <c r="Q103" s="18"/>
@@ -15631,7 +17146,7 @@
       <c r="L104" s="18"/>
       <c r="M104" s="18"/>
       <c r="O104" s="18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="P104" s="18"/>
       <c r="Q104" s="18"/>
@@ -15660,7 +17175,7 @@
       <c r="L105" s="18"/>
       <c r="M105" s="18"/>
       <c r="O105" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="P105" s="18"/>
       <c r="Q105" s="18"/>
@@ -15689,7 +17204,7 @@
       <c r="L106" s="18"/>
       <c r="M106" s="18"/>
       <c r="O106" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="P106" s="18"/>
       <c r="Q106" s="18"/>
@@ -15716,7 +17231,7 @@
       <c r="L107" s="18"/>
       <c r="M107" s="18"/>
       <c r="O107" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="P107" s="18"/>
       <c r="Q107" s="18"/>
@@ -15731,7 +17246,7 @@
     </row>
     <row r="108" spans="2:25">
       <c r="B108" s="18" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C108" s="18"/>
       <c r="D108" s="18"/>
@@ -15745,9 +17260,9 @@
       <c r="L108" s="18"/>
       <c r="M108" s="18"/>
       <c r="O108" s="85" t="s">
-        <v>832</v>
-      </c>
-      <c r="P108" s="93"/>
+        <v>831</v>
+      </c>
+      <c r="P108" s="91"/>
       <c r="Q108" s="18"/>
       <c r="R108" s="18"/>
       <c r="S108" s="18"/>
@@ -15773,10 +17288,10 @@
       <c r="K109" s="18"/>
       <c r="L109" s="18"/>
       <c r="M109" s="18"/>
-      <c r="O109" s="93" t="s">
-        <v>833</v>
-      </c>
-      <c r="P109" s="93"/>
+      <c r="O109" s="91" t="s">
+        <v>832</v>
+      </c>
+      <c r="P109" s="91"/>
       <c r="Q109" s="18"/>
       <c r="R109" s="18"/>
       <c r="S109" s="18"/>
@@ -15802,10 +17317,10 @@
       <c r="K110" s="18"/>
       <c r="L110" s="18"/>
       <c r="M110" s="18"/>
-      <c r="O110" s="93" t="s">
-        <v>932</v>
-      </c>
-      <c r="P110" s="93"/>
+      <c r="O110" s="91" t="s">
+        <v>931</v>
+      </c>
+      <c r="P110" s="91"/>
       <c r="Q110" s="18"/>
       <c r="R110" s="18"/>
       <c r="S110" s="18"/>
@@ -15818,7 +17333,7 @@
     </row>
     <row r="111" spans="2:25">
       <c r="B111" s="18" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C111" s="18"/>
       <c r="D111" s="18"/>
@@ -15831,10 +17346,10 @@
       <c r="K111" s="18"/>
       <c r="L111" s="18"/>
       <c r="M111" s="18"/>
-      <c r="O111" s="93" t="s">
-        <v>834</v>
-      </c>
-      <c r="P111" s="93"/>
+      <c r="O111" s="91" t="s">
+        <v>833</v>
+      </c>
+      <c r="P111" s="91"/>
       <c r="Q111" s="18"/>
       <c r="R111" s="18"/>
       <c r="S111" s="18"/>
@@ -15860,10 +17375,10 @@
       <c r="K112" s="18"/>
       <c r="L112" s="18"/>
       <c r="M112" s="18"/>
-      <c r="O112" s="93" t="s">
-        <v>835</v>
-      </c>
-      <c r="P112" s="93"/>
+      <c r="O112" s="91" t="s">
+        <v>834</v>
+      </c>
+      <c r="P112" s="91"/>
       <c r="Q112" s="18"/>
       <c r="R112" s="18"/>
       <c r="S112" s="18"/>
@@ -15888,7 +17403,7 @@
       <c r="L113" s="18"/>
       <c r="M113" s="18"/>
       <c r="O113" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="P113" s="18"/>
       <c r="Q113" s="18"/>
@@ -15903,7 +17418,7 @@
     </row>
     <row r="114" spans="2:25">
       <c r="B114" s="18" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C114" s="18"/>
       <c r="D114" s="18"/>
@@ -15917,7 +17432,7 @@
       <c r="L114" s="18"/>
       <c r="M114" s="18"/>
       <c r="O114" s="18" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="P114" s="18"/>
       <c r="Q114" s="18"/>
@@ -15946,7 +17461,7 @@
       <c r="L115" s="18"/>
       <c r="M115" s="18"/>
       <c r="O115" s="18" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="P115" s="18"/>
       <c r="Q115" s="18"/>
@@ -15975,7 +17490,7 @@
       <c r="L116" s="18"/>
       <c r="M116" s="18"/>
       <c r="O116" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P116" s="18"/>
       <c r="Q116" s="18"/>
@@ -15990,7 +17505,7 @@
     </row>
     <row r="117" spans="2:25">
       <c r="B117" s="18" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C117" s="18"/>
       <c r="D117" s="18"/>
@@ -16004,7 +17519,7 @@
       <c r="L117" s="18"/>
       <c r="M117" s="18"/>
       <c r="O117" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="P117" s="18"/>
       <c r="Q117" s="18"/>
@@ -16019,7 +17534,7 @@
     </row>
     <row r="118" spans="2:25">
       <c r="B118" s="18" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C118" s="18"/>
       <c r="D118" s="18"/>
@@ -16033,7 +17548,7 @@
       <c r="L118" s="18"/>
       <c r="M118" s="18"/>
       <c r="O118" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="P118" s="18"/>
       <c r="Q118" s="18"/>
@@ -16062,7 +17577,7 @@
       <c r="L119" s="18"/>
       <c r="M119" s="18"/>
       <c r="O119" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="P119" s="18"/>
       <c r="Q119" s="18"/>
@@ -16089,7 +17604,7 @@
       <c r="L120" s="18"/>
       <c r="M120" s="18"/>
       <c r="O120" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="P120" s="18"/>
       <c r="Q120" s="18"/>
@@ -16104,7 +17619,7 @@
     </row>
     <row r="121" spans="2:25">
       <c r="B121" s="18" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C121" s="18"/>
       <c r="D121" s="18"/>
@@ -16118,7 +17633,7 @@
       <c r="L121" s="18"/>
       <c r="M121" s="18"/>
       <c r="O121" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="P121" s="18"/>
       <c r="Q121" s="18"/>
@@ -16147,7 +17662,7 @@
       <c r="L122" s="18"/>
       <c r="M122" s="18"/>
       <c r="O122" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="P122" s="18"/>
       <c r="Q122" s="18"/>
@@ -16176,7 +17691,7 @@
       <c r="L123" s="18"/>
       <c r="M123" s="18"/>
       <c r="O123" s="18" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P123" s="18"/>
       <c r="Q123" s="18"/>
@@ -16191,7 +17706,7 @@
     </row>
     <row r="124" spans="2:25">
       <c r="B124" s="18" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C124" s="18"/>
       <c r="D124" s="18"/>
@@ -16232,7 +17747,7 @@
       <c r="L125" s="18"/>
       <c r="M125" s="18"/>
       <c r="O125" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="P125" s="18"/>
       <c r="Q125" s="18"/>
@@ -16247,7 +17762,7 @@
     </row>
     <row r="126" spans="2:25">
       <c r="B126" s="18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C126" s="18"/>
       <c r="D126" s="18"/>
@@ -16276,8 +17791,8 @@
       <c r="K127" s="18"/>
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
-      <c r="O127" s="92" t="s">
-        <v>935</v>
+      <c r="O127" s="90" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="128" spans="2:25">
@@ -16296,7 +17811,7 @@
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
       <c r="O128" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="P128" s="18"/>
       <c r="Q128" s="18"/>
@@ -16311,7 +17826,7 @@
     </row>
     <row r="129" spans="2:25">
       <c r="B129" s="18" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C129" s="18"/>
       <c r="D129" s="18"/>
@@ -16325,7 +17840,7 @@
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
       <c r="O129" s="18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P129" s="18"/>
       <c r="Q129" s="18"/>
@@ -16340,7 +17855,7 @@
     </row>
     <row r="130" spans="2:25">
       <c r="B130" s="18" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C130" s="18"/>
       <c r="D130" s="18"/>
@@ -16354,7 +17869,7 @@
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
       <c r="O130" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P130" s="18"/>
       <c r="Q130" s="18"/>
@@ -16383,7 +17898,7 @@
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
       <c r="O131" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="P131" s="18"/>
       <c r="Q131" s="18"/>
@@ -16410,7 +17925,7 @@
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
       <c r="O132" s="18" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="P132" s="18"/>
       <c r="Q132" s="18"/>
@@ -16425,7 +17940,7 @@
     </row>
     <row r="133" spans="2:25">
       <c r="B133" s="18" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C133" s="18"/>
       <c r="D133" s="18"/>
@@ -16439,7 +17954,7 @@
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
       <c r="O133" s="18" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="P133" s="18"/>
       <c r="Q133" s="18"/>
@@ -16468,7 +17983,7 @@
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
       <c r="O134" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="P134" s="18"/>
       <c r="Q134" s="18"/>
@@ -16497,7 +18012,7 @@
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
       <c r="O135" s="18" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="P135" s="18"/>
       <c r="Q135" s="18"/>
@@ -16512,7 +18027,7 @@
     </row>
     <row r="136" spans="2:25">
       <c r="B136" s="18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C136" s="18"/>
       <c r="D136" s="18"/>
@@ -16526,7 +18041,7 @@
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
       <c r="O136" s="18" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="P136" s="18"/>
       <c r="Q136" s="18"/>
@@ -16555,7 +18070,7 @@
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
       <c r="O137" s="18" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="P137" s="18"/>
       <c r="Q137" s="18"/>
@@ -16570,7 +18085,7 @@
     </row>
     <row r="138" spans="2:25">
       <c r="B138" s="18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C138" s="18"/>
       <c r="D138" s="18"/>
@@ -16584,7 +18099,7 @@
       <c r="L138" s="18"/>
       <c r="M138" s="18"/>
       <c r="O138" s="18" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="P138" s="18"/>
       <c r="Q138" s="18"/>
@@ -16611,7 +18126,7 @@
       <c r="L139" s="18"/>
       <c r="M139" s="18"/>
       <c r="O139" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="P139" s="18"/>
       <c r="Q139" s="18"/>
@@ -16626,7 +18141,7 @@
     </row>
     <row r="140" spans="2:25">
       <c r="B140" s="85" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C140" s="85"/>
       <c r="D140" s="85"/>
@@ -16640,7 +18155,7 @@
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
       <c r="O140" s="18" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="P140" s="18"/>
       <c r="Q140" s="18"/>
@@ -16655,7 +18170,7 @@
     </row>
     <row r="141" spans="2:25">
       <c r="B141" s="85" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C141" s="85"/>
       <c r="D141" s="85"/>
@@ -16669,7 +18184,7 @@
       <c r="L141" s="18"/>
       <c r="M141" s="18"/>
       <c r="O141" s="18" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="P141" s="18"/>
       <c r="Q141" s="18"/>
@@ -16684,7 +18199,7 @@
     </row>
     <row r="142" spans="2:25">
       <c r="B142" s="85" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C142" s="85"/>
       <c r="D142" s="85"/>
@@ -16698,7 +18213,7 @@
       <c r="L142" s="18"/>
       <c r="M142" s="18"/>
       <c r="O142" s="18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="P142" s="18"/>
       <c r="Q142" s="18"/>
@@ -16713,7 +18228,7 @@
     </row>
     <row r="143" spans="2:25">
       <c r="B143" s="85" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C143" s="85"/>
       <c r="D143" s="85"/>
@@ -16727,7 +18242,7 @@
       <c r="L143" s="18"/>
       <c r="M143" s="18"/>
       <c r="O143" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="P143" s="18"/>
       <c r="Q143" s="18"/>
@@ -16742,7 +18257,7 @@
     </row>
     <row r="144" spans="2:25">
       <c r="B144" s="85" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C144" s="85"/>
       <c r="D144" s="85"/>
@@ -16756,7 +18271,7 @@
       <c r="L144" s="18"/>
       <c r="M144" s="18"/>
       <c r="O144" s="18" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="P144" s="18"/>
       <c r="Q144" s="18"/>
@@ -16771,7 +18286,7 @@
     </row>
     <row r="145" spans="2:25">
       <c r="B145" s="85" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C145" s="85"/>
       <c r="D145" s="85"/>
@@ -16798,7 +18313,7 @@
     </row>
     <row r="146" spans="2:25">
       <c r="B146" s="85" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C146" s="85"/>
       <c r="D146" s="85"/>
@@ -16812,7 +18327,7 @@
       <c r="L146" s="18"/>
       <c r="M146" s="18"/>
       <c r="O146" s="18" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="P146" s="18"/>
       <c r="Q146" s="18"/>
@@ -16827,7 +18342,7 @@
     </row>
     <row r="147" spans="2:25">
       <c r="B147" s="85" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C147" s="85"/>
       <c r="D147" s="85"/>
@@ -16841,7 +18356,7 @@
       <c r="L147" s="18"/>
       <c r="M147" s="18"/>
       <c r="O147" s="18" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="P147" s="18"/>
       <c r="Q147" s="18"/>
@@ -16856,7 +18371,7 @@
     </row>
     <row r="148" spans="2:25">
       <c r="B148" s="85" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C148" s="85"/>
       <c r="D148" s="85"/>
@@ -16870,7 +18385,7 @@
       <c r="L148" s="18"/>
       <c r="M148" s="18"/>
       <c r="O148" s="18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P148" s="18"/>
       <c r="Q148" s="18"/>
@@ -16885,7 +18400,7 @@
     </row>
     <row r="149" spans="2:25">
       <c r="B149" s="85" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C149" s="85"/>
       <c r="D149" s="85"/>
@@ -16912,7 +18427,7 @@
     </row>
     <row r="150" spans="2:25">
       <c r="B150" s="85" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C150" s="85"/>
       <c r="D150" s="85"/>
@@ -16926,7 +18441,7 @@
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
       <c r="O150" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="P150" s="18"/>
       <c r="Q150" s="18"/>
@@ -16941,7 +18456,7 @@
     </row>
     <row r="151" spans="2:25">
       <c r="B151" s="85" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C151" s="85"/>
       <c r="D151" s="85"/>
@@ -16955,7 +18470,7 @@
       <c r="L151" s="18"/>
       <c r="M151" s="18"/>
       <c r="O151" s="18" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="P151" s="18"/>
       <c r="Q151" s="18"/>
@@ -16970,7 +18485,7 @@
     </row>
     <row r="152" spans="2:25">
       <c r="B152" s="85" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C152" s="85"/>
       <c r="D152" s="85"/>
@@ -16984,7 +18499,7 @@
       <c r="L152" s="18"/>
       <c r="M152" s="18"/>
       <c r="O152" s="18" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="P152" s="18"/>
       <c r="Q152" s="18"/>
@@ -16999,7 +18514,7 @@
     </row>
     <row r="153" spans="2:25">
       <c r="B153" s="85" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C153" s="85"/>
       <c r="D153" s="85"/>
@@ -17013,7 +18528,7 @@
       <c r="L153" s="18"/>
       <c r="M153" s="18"/>
       <c r="O153" s="18" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P153" s="18"/>
       <c r="Q153" s="18"/>
@@ -17028,7 +18543,7 @@
     </row>
     <row r="154" spans="2:25">
       <c r="B154" s="85" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C154" s="85"/>
       <c r="D154" s="85"/>
@@ -17055,7 +18570,7 @@
     </row>
     <row r="155" spans="2:25">
       <c r="B155" s="85" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C155" s="85"/>
       <c r="D155" s="85"/>
@@ -17069,7 +18584,7 @@
       <c r="L155" s="18"/>
       <c r="M155" s="18"/>
       <c r="O155" s="18" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="P155" s="18"/>
       <c r="Q155" s="18"/>
@@ -17084,7 +18599,7 @@
     </row>
     <row r="156" spans="2:25">
       <c r="B156" s="85" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C156" s="85"/>
       <c r="D156" s="85"/>
@@ -17098,7 +18613,7 @@
       <c r="L156" s="18"/>
       <c r="M156" s="18"/>
       <c r="O156" s="18" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="P156" s="18"/>
       <c r="Q156" s="18"/>
@@ -17113,7 +18628,7 @@
     </row>
     <row r="157" spans="2:25">
       <c r="B157" s="85" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C157" s="85"/>
       <c r="D157" s="85"/>
@@ -17142,7 +18657,7 @@
     </row>
     <row r="158" spans="2:25">
       <c r="B158" s="85" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C158" s="85"/>
       <c r="D158" s="85"/>
@@ -17156,7 +18671,7 @@
       <c r="L158" s="18"/>
       <c r="M158" s="18"/>
       <c r="O158" s="18" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="P158" s="18"/>
       <c r="Q158" s="18"/>
@@ -17171,7 +18686,7 @@
     </row>
     <row r="159" spans="2:25">
       <c r="B159" s="85" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C159" s="85"/>
       <c r="D159" s="85"/>
@@ -17185,7 +18700,7 @@
       <c r="L159" s="18"/>
       <c r="M159" s="18"/>
       <c r="O159" s="18" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="P159" s="18"/>
       <c r="Q159" s="18"/>
@@ -17200,7 +18715,7 @@
     </row>
     <row r="160" spans="2:25">
       <c r="B160" s="85" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C160" s="85"/>
       <c r="D160" s="85"/>
@@ -17214,7 +18729,7 @@
       <c r="L160" s="18"/>
       <c r="M160" s="18"/>
       <c r="O160" s="18" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="P160" s="18"/>
       <c r="Q160" s="18"/>
@@ -17229,7 +18744,7 @@
     </row>
     <row r="161" spans="2:25">
       <c r="B161" s="85" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C161" s="85"/>
       <c r="D161" s="85"/>
@@ -17285,7 +18800,7 @@
     </row>
     <row r="163" spans="2:25">
       <c r="B163" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C163" s="18"/>
       <c r="D163" s="18"/>
@@ -17299,7 +18814,7 @@
       <c r="L163" s="18"/>
       <c r="M163" s="18"/>
       <c r="O163" s="18" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="P163" s="18"/>
       <c r="Q163" s="18"/>
@@ -17314,7 +18829,7 @@
     </row>
     <row r="164" spans="2:25">
       <c r="O164" s="18" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P164" s="18"/>
       <c r="Q164" s="18"/>
@@ -17329,10 +18844,10 @@
     </row>
     <row r="165" spans="2:25" ht="15">
       <c r="B165" s="80" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="O165" s="18" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="P165" s="18"/>
       <c r="Q165" s="18"/>
@@ -17346,19 +18861,19 @@
       <c r="Y165" s="18"/>
     </row>
     <row r="166" spans="2:25">
-      <c r="B166" s="94" t="s">
-        <v>948</v>
-      </c>
-      <c r="C166" s="94"/>
-      <c r="D166" s="94"/>
-      <c r="E166" s="94"/>
-      <c r="F166" s="94"/>
-      <c r="G166" s="94"/>
-      <c r="H166" s="94"/>
-      <c r="I166" s="94"/>
-      <c r="J166" s="94"/>
-      <c r="K166" s="94"/>
-      <c r="L166" s="94"/>
+      <c r="B166" s="92" t="s">
+        <v>947</v>
+      </c>
+      <c r="C166" s="92"/>
+      <c r="D166" s="92"/>
+      <c r="E166" s="92"/>
+      <c r="F166" s="92"/>
+      <c r="G166" s="92"/>
+      <c r="H166" s="92"/>
+      <c r="I166" s="92"/>
+      <c r="J166" s="92"/>
+      <c r="K166" s="92"/>
+      <c r="L166" s="92"/>
       <c r="O166" s="18" t="s">
         <v>217</v>
       </c>
@@ -17374,21 +18889,21 @@
       <c r="Y166" s="18"/>
     </row>
     <row r="167" spans="2:25">
-      <c r="B167" s="94" t="s">
-        <v>949</v>
-      </c>
-      <c r="C167" s="94"/>
-      <c r="D167" s="94"/>
-      <c r="E167" s="94"/>
-      <c r="F167" s="94"/>
-      <c r="G167" s="94"/>
-      <c r="H167" s="94"/>
-      <c r="I167" s="94"/>
-      <c r="J167" s="94"/>
-      <c r="K167" s="94"/>
-      <c r="L167" s="94"/>
+      <c r="B167" s="92" t="s">
+        <v>948</v>
+      </c>
+      <c r="C167" s="92"/>
+      <c r="D167" s="92"/>
+      <c r="E167" s="92"/>
+      <c r="F167" s="92"/>
+      <c r="G167" s="92"/>
+      <c r="H167" s="92"/>
+      <c r="I167" s="92"/>
+      <c r="J167" s="92"/>
+      <c r="K167" s="92"/>
+      <c r="L167" s="92"/>
       <c r="O167" s="18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="P167" s="18"/>
       <c r="Q167" s="18"/>
@@ -17402,21 +18917,21 @@
       <c r="Y167" s="18"/>
     </row>
     <row r="168" spans="2:25">
-      <c r="B168" s="94" t="s">
-        <v>950</v>
-      </c>
-      <c r="C168" s="94"/>
-      <c r="D168" s="94"/>
-      <c r="E168" s="94"/>
-      <c r="F168" s="94"/>
-      <c r="G168" s="94"/>
-      <c r="H168" s="94"/>
-      <c r="I168" s="94"/>
-      <c r="J168" s="94"/>
-      <c r="K168" s="94"/>
-      <c r="L168" s="94"/>
+      <c r="B168" s="92" t="s">
+        <v>949</v>
+      </c>
+      <c r="C168" s="92"/>
+      <c r="D168" s="92"/>
+      <c r="E168" s="92"/>
+      <c r="F168" s="92"/>
+      <c r="G168" s="92"/>
+      <c r="H168" s="92"/>
+      <c r="I168" s="92"/>
+      <c r="J168" s="92"/>
+      <c r="K168" s="92"/>
+      <c r="L168" s="92"/>
       <c r="O168" s="18" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P168" s="18"/>
       <c r="Q168" s="18"/>
@@ -17430,21 +18945,21 @@
       <c r="Y168" s="18"/>
     </row>
     <row r="169" spans="2:25">
-      <c r="B169" s="94" t="s">
-        <v>951</v>
-      </c>
-      <c r="C169" s="94"/>
-      <c r="D169" s="94"/>
-      <c r="E169" s="94"/>
-      <c r="F169" s="94"/>
-      <c r="G169" s="94"/>
-      <c r="H169" s="94"/>
-      <c r="I169" s="94"/>
-      <c r="J169" s="94"/>
-      <c r="K169" s="94"/>
-      <c r="L169" s="94"/>
+      <c r="B169" s="92" t="s">
+        <v>950</v>
+      </c>
+      <c r="C169" s="92"/>
+      <c r="D169" s="92"/>
+      <c r="E169" s="92"/>
+      <c r="F169" s="92"/>
+      <c r="G169" s="92"/>
+      <c r="H169" s="92"/>
+      <c r="I169" s="92"/>
+      <c r="J169" s="92"/>
+      <c r="K169" s="92"/>
+      <c r="L169" s="92"/>
       <c r="O169" s="18" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="P169" s="18"/>
       <c r="Q169" s="18"/>
@@ -17458,21 +18973,21 @@
       <c r="Y169" s="18"/>
     </row>
     <row r="170" spans="2:25">
-      <c r="B170" s="94" t="s">
-        <v>952</v>
-      </c>
-      <c r="C170" s="94"/>
-      <c r="D170" s="94"/>
-      <c r="E170" s="94"/>
-      <c r="F170" s="94"/>
-      <c r="G170" s="94"/>
-      <c r="H170" s="94"/>
-      <c r="I170" s="94"/>
-      <c r="J170" s="94"/>
-      <c r="K170" s="94"/>
-      <c r="L170" s="94"/>
+      <c r="B170" s="92" t="s">
+        <v>951</v>
+      </c>
+      <c r="C170" s="92"/>
+      <c r="D170" s="92"/>
+      <c r="E170" s="92"/>
+      <c r="F170" s="92"/>
+      <c r="G170" s="92"/>
+      <c r="H170" s="92"/>
+      <c r="I170" s="92"/>
+      <c r="J170" s="92"/>
+      <c r="K170" s="92"/>
+      <c r="L170" s="92"/>
       <c r="O170" s="18" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="P170" s="18"/>
       <c r="Q170" s="18"/>
@@ -17486,21 +19001,21 @@
       <c r="Y170" s="18"/>
     </row>
     <row r="171" spans="2:25">
-      <c r="B171" s="94" t="s">
-        <v>953</v>
-      </c>
-      <c r="C171" s="94"/>
-      <c r="D171" s="94"/>
-      <c r="E171" s="94"/>
-      <c r="F171" s="94"/>
-      <c r="G171" s="94"/>
-      <c r="H171" s="94"/>
-      <c r="I171" s="94"/>
-      <c r="J171" s="94"/>
-      <c r="K171" s="94"/>
-      <c r="L171" s="94"/>
+      <c r="B171" s="92" t="s">
+        <v>952</v>
+      </c>
+      <c r="C171" s="92"/>
+      <c r="D171" s="92"/>
+      <c r="E171" s="92"/>
+      <c r="F171" s="92"/>
+      <c r="G171" s="92"/>
+      <c r="H171" s="92"/>
+      <c r="I171" s="92"/>
+      <c r="J171" s="92"/>
+      <c r="K171" s="92"/>
+      <c r="L171" s="92"/>
       <c r="O171" s="18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="P171" s="18"/>
       <c r="Q171" s="18"/>
@@ -17514,21 +19029,21 @@
       <c r="Y171" s="18"/>
     </row>
     <row r="172" spans="2:25">
-      <c r="B172" s="94" t="s">
-        <v>954</v>
-      </c>
-      <c r="C172" s="94"/>
-      <c r="D172" s="94"/>
-      <c r="E172" s="94"/>
-      <c r="F172" s="94"/>
-      <c r="G172" s="94"/>
-      <c r="H172" s="94"/>
-      <c r="I172" s="94"/>
-      <c r="J172" s="94"/>
-      <c r="K172" s="94"/>
-      <c r="L172" s="94"/>
+      <c r="B172" s="92" t="s">
+        <v>953</v>
+      </c>
+      <c r="C172" s="92"/>
+      <c r="D172" s="92"/>
+      <c r="E172" s="92"/>
+      <c r="F172" s="92"/>
+      <c r="G172" s="92"/>
+      <c r="H172" s="92"/>
+      <c r="I172" s="92"/>
+      <c r="J172" s="92"/>
+      <c r="K172" s="92"/>
+      <c r="L172" s="92"/>
       <c r="O172" s="18" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="P172" s="18"/>
       <c r="Q172" s="18"/>
@@ -17542,21 +19057,21 @@
       <c r="Y172" s="18"/>
     </row>
     <row r="173" spans="2:25">
-      <c r="B173" s="94" t="s">
-        <v>953</v>
-      </c>
-      <c r="C173" s="94"/>
-      <c r="D173" s="94"/>
-      <c r="E173" s="94"/>
-      <c r="F173" s="94"/>
-      <c r="G173" s="94"/>
-      <c r="H173" s="94"/>
-      <c r="I173" s="94"/>
-      <c r="J173" s="94"/>
-      <c r="K173" s="94"/>
-      <c r="L173" s="94"/>
+      <c r="B173" s="92" t="s">
+        <v>952</v>
+      </c>
+      <c r="C173" s="92"/>
+      <c r="D173" s="92"/>
+      <c r="E173" s="92"/>
+      <c r="F173" s="92"/>
+      <c r="G173" s="92"/>
+      <c r="H173" s="92"/>
+      <c r="I173" s="92"/>
+      <c r="J173" s="92"/>
+      <c r="K173" s="92"/>
+      <c r="L173" s="92"/>
       <c r="O173" s="18" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="P173" s="18"/>
       <c r="Q173" s="18"/>
@@ -17570,21 +19085,21 @@
       <c r="Y173" s="18"/>
     </row>
     <row r="174" spans="2:25">
-      <c r="B174" s="94" t="s">
-        <v>955</v>
-      </c>
-      <c r="C174" s="94"/>
-      <c r="D174" s="94"/>
-      <c r="E174" s="94"/>
-      <c r="F174" s="94"/>
-      <c r="G174" s="94"/>
-      <c r="H174" s="94"/>
-      <c r="I174" s="94"/>
-      <c r="J174" s="94"/>
-      <c r="K174" s="94"/>
-      <c r="L174" s="94"/>
+      <c r="B174" s="92" t="s">
+        <v>954</v>
+      </c>
+      <c r="C174" s="92"/>
+      <c r="D174" s="92"/>
+      <c r="E174" s="92"/>
+      <c r="F174" s="92"/>
+      <c r="G174" s="92"/>
+      <c r="H174" s="92"/>
+      <c r="I174" s="92"/>
+      <c r="J174" s="92"/>
+      <c r="K174" s="92"/>
+      <c r="L174" s="92"/>
       <c r="O174" s="18" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="P174" s="18"/>
       <c r="Q174" s="18"/>
@@ -17598,21 +19113,21 @@
       <c r="Y174" s="18"/>
     </row>
     <row r="175" spans="2:25">
-      <c r="B175" s="94" t="s">
-        <v>956</v>
-      </c>
-      <c r="C175" s="94"/>
-      <c r="D175" s="94"/>
-      <c r="E175" s="94"/>
-      <c r="F175" s="94"/>
-      <c r="G175" s="94"/>
-      <c r="H175" s="94"/>
-      <c r="I175" s="94"/>
-      <c r="J175" s="94"/>
-      <c r="K175" s="94"/>
-      <c r="L175" s="94"/>
+      <c r="B175" s="92" t="s">
+        <v>955</v>
+      </c>
+      <c r="C175" s="92"/>
+      <c r="D175" s="92"/>
+      <c r="E175" s="92"/>
+      <c r="F175" s="92"/>
+      <c r="G175" s="92"/>
+      <c r="H175" s="92"/>
+      <c r="I175" s="92"/>
+      <c r="J175" s="92"/>
+      <c r="K175" s="92"/>
+      <c r="L175" s="92"/>
       <c r="O175" s="18" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="P175" s="18"/>
       <c r="Q175" s="18"/>
@@ -17626,21 +19141,21 @@
       <c r="Y175" s="18"/>
     </row>
     <row r="176" spans="2:25">
-      <c r="B176" s="94" t="s">
-        <v>957</v>
-      </c>
-      <c r="C176" s="94"/>
-      <c r="D176" s="94"/>
-      <c r="E176" s="94"/>
-      <c r="F176" s="94"/>
-      <c r="G176" s="94"/>
-      <c r="H176" s="94"/>
-      <c r="I176" s="94"/>
-      <c r="J176" s="94"/>
-      <c r="K176" s="94"/>
-      <c r="L176" s="94"/>
+      <c r="B176" s="92" t="s">
+        <v>956</v>
+      </c>
+      <c r="C176" s="92"/>
+      <c r="D176" s="92"/>
+      <c r="E176" s="92"/>
+      <c r="F176" s="92"/>
+      <c r="G176" s="92"/>
+      <c r="H176" s="92"/>
+      <c r="I176" s="92"/>
+      <c r="J176" s="92"/>
+      <c r="K176" s="92"/>
+      <c r="L176" s="92"/>
       <c r="O176" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="P176" s="18"/>
       <c r="Q176" s="18"/>
@@ -17654,21 +19169,21 @@
       <c r="Y176" s="18"/>
     </row>
     <row r="177" spans="1:25">
-      <c r="B177" s="94" t="s">
-        <v>953</v>
-      </c>
-      <c r="C177" s="94"/>
-      <c r="D177" s="94"/>
-      <c r="E177" s="94"/>
-      <c r="F177" s="94"/>
-      <c r="G177" s="94"/>
-      <c r="H177" s="94"/>
-      <c r="I177" s="94"/>
-      <c r="J177" s="94"/>
-      <c r="K177" s="94"/>
-      <c r="L177" s="94"/>
+      <c r="B177" s="92" t="s">
+        <v>952</v>
+      </c>
+      <c r="C177" s="92"/>
+      <c r="D177" s="92"/>
+      <c r="E177" s="92"/>
+      <c r="F177" s="92"/>
+      <c r="G177" s="92"/>
+      <c r="H177" s="92"/>
+      <c r="I177" s="92"/>
+      <c r="J177" s="92"/>
+      <c r="K177" s="92"/>
+      <c r="L177" s="92"/>
       <c r="O177" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="P177" s="18"/>
       <c r="Q177" s="18"/>
@@ -17683,7 +19198,7 @@
     </row>
     <row r="178" spans="1:25">
       <c r="O178" s="18" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="P178" s="18"/>
       <c r="Q178" s="18"/>
@@ -17698,7 +19213,7 @@
     </row>
     <row r="179" spans="1:25">
       <c r="O179" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="P179" s="18"/>
       <c r="Q179" s="18"/>
@@ -17713,7 +19228,7 @@
     </row>
     <row r="180" spans="1:25">
       <c r="O180" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="P180" s="18"/>
       <c r="Q180" s="18"/>
@@ -17728,7 +19243,7 @@
     </row>
     <row r="181" spans="1:25">
       <c r="O181" s="18" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P181" s="18"/>
       <c r="Q181" s="18"/>
@@ -17756,7 +19271,7 @@
     </row>
     <row r="183" spans="1:25">
       <c r="O183" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="P183" s="18"/>
       <c r="Q183" s="18"/>
@@ -17990,10 +19505,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X205"/>
+  <dimension ref="A1:X221"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="E211" sqref="E211"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="H214" sqref="H214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -21059,6 +22574,126 @@
       <c r="F205" s="18"/>
       <c r="G205" s="18"/>
     </row>
+    <row r="207" spans="1:13" ht="23.25">
+      <c r="A207" s="23" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B207" s="24"/>
+    </row>
+    <row r="208" spans="1:13" ht="15.75">
+      <c r="B208" s="24" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="209" spans="2:14">
+      <c r="B209" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="210" spans="2:14" ht="15.75">
+      <c r="B210" s="24" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="211" spans="2:14" ht="18">
+      <c r="B211" s="66" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C211" s="18"/>
+      <c r="D211" s="18"/>
+      <c r="E211" s="18"/>
+      <c r="F211" s="18"/>
+      <c r="G211" s="18"/>
+    </row>
+    <row r="212" spans="2:14" ht="15.75">
+      <c r="B212" s="24" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="213" spans="2:14" ht="15">
+      <c r="B213" s="106" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C213" s="18"/>
+      <c r="D213" s="105" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E213" s="105"/>
+      <c r="F213" s="105"/>
+      <c r="G213" s="105"/>
+      <c r="H213" s="105"/>
+      <c r="I213" s="105"/>
+      <c r="J213" s="105"/>
+      <c r="K213" s="105"/>
+      <c r="L213" s="105"/>
+      <c r="M213" s="105"/>
+      <c r="N213" s="105"/>
+    </row>
+    <row r="214" spans="2:14" ht="15.75">
+      <c r="B214" s="24" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="215" spans="2:14">
+      <c r="B215" s="102" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C215" s="18"/>
+      <c r="D215" s="18"/>
+      <c r="E215" s="18"/>
+      <c r="F215" s="18"/>
+      <c r="G215" s="18"/>
+    </row>
+    <row r="216" spans="2:14">
+      <c r="B216" s="102" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C216" s="18"/>
+      <c r="D216" s="18"/>
+      <c r="E216" s="18"/>
+      <c r="F216" s="18"/>
+      <c r="G216" s="18"/>
+    </row>
+    <row r="217" spans="2:14">
+      <c r="B217" s="102" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C217" s="18"/>
+      <c r="D217" s="18"/>
+      <c r="E217" s="18"/>
+      <c r="F217" s="18"/>
+      <c r="G217" s="18"/>
+    </row>
+    <row r="218" spans="2:14">
+      <c r="B218" s="102" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C218" s="18"/>
+      <c r="D218" s="18"/>
+      <c r="E218" s="18"/>
+      <c r="F218" s="18"/>
+      <c r="G218" s="18"/>
+    </row>
+    <row r="219" spans="2:14">
+      <c r="B219" s="102" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C219" s="18"/>
+      <c r="D219" s="18"/>
+      <c r="E219" s="18"/>
+      <c r="F219" s="18"/>
+      <c r="G219" s="18"/>
+    </row>
+    <row r="220" spans="2:14" ht="15.75">
+      <c r="B220" s="24" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="221" spans="2:14" ht="15.75">
+      <c r="B221" s="24" t="s">
+        <v>1045</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21071,10 +22706,260 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:P208"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="9" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="26.25">
+      <c r="A1" s="99" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="B2" s="63" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="B3" s="103" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="M3" s="104" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="B4" s="103" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="M4" s="104" t="s">
+        <v>1060</v>
+      </c>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="B5" s="103" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="M5" s="104" t="s">
+        <v>1061</v>
+      </c>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="B6" s="103" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="M6" s="104" t="s">
+        <v>1062</v>
+      </c>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="96"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="B7" s="63" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M7" s="104" t="s">
+        <v>1063</v>
+      </c>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+      <c r="S7" s="96"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="B8" s="63" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M8" s="104" t="s">
+        <v>1064</v>
+      </c>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="96"/>
+      <c r="S8" s="96"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="B9" s="63" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M9" s="104" t="s">
+        <v>1065</v>
+      </c>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="96"/>
+      <c r="S9" s="96"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="B10" s="66" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="M10" s="104" t="s">
+        <v>1066</v>
+      </c>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="B11" s="66" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="B12" s="66" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="B13" s="66" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="B14" s="66" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="B15" s="66" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="B16" s="66" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:P311"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -21082,8 +22967,8 @@
     <col min="2" max="2" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:2" ht="27">
+      <c r="A1" s="76" t="s">
         <v>571</v>
       </c>
     </row>
@@ -21249,12 +23134,12 @@
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="24" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="77" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="41" spans="2:8">
@@ -21369,7 +23254,7 @@
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="77" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="52" spans="2:8">
@@ -21740,7 +23625,7 @@
     </row>
     <row r="101" spans="2:11">
       <c r="B101" s="77" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="102" spans="2:11">
@@ -22084,7 +23969,7 @@
     </row>
     <row r="127" spans="2:11">
       <c r="B127" s="77" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="128" spans="2:11">
@@ -22099,12 +23984,12 @@
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="24" t="s">
-        <v>753</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="24" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="132" spans="2:2" ht="14.25">
@@ -22112,17 +23997,17 @@
     </row>
     <row r="145" spans="2:8">
       <c r="B145" s="77" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="146" spans="2:8">
       <c r="B146" s="24" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="147" spans="2:8">
       <c r="B147" s="27" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C147" s="18"/>
       <c r="D147" s="18"/>
@@ -22133,7 +24018,7 @@
     </row>
     <row r="148" spans="2:8">
       <c r="B148" s="27" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C148" s="18"/>
       <c r="D148" s="18"/>
@@ -22155,7 +24040,7 @@
     </row>
     <row r="150" spans="2:8">
       <c r="B150" s="27" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C150" s="18"/>
       <c r="D150" s="18"/>
@@ -22166,7 +24051,7 @@
     </row>
     <row r="151" spans="2:8">
       <c r="B151" s="27" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C151" s="18"/>
       <c r="D151" s="18"/>
@@ -22188,7 +24073,7 @@
     </row>
     <row r="153" spans="2:8" ht="15">
       <c r="B153" s="80" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="154" spans="2:8" ht="14.25">
@@ -22196,22 +24081,22 @@
     </row>
     <row r="162" spans="2:8">
       <c r="B162" s="77" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="163" spans="2:8">
       <c r="B163" s="24" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="164" spans="2:8">
       <c r="B164" s="24" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="165" spans="2:8">
       <c r="B165" s="77" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="166" spans="2:8">
@@ -22227,7 +24112,7 @@
     </row>
     <row r="167" spans="2:8">
       <c r="B167" s="27" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C167" s="18"/>
       <c r="D167" s="18"/>
@@ -22238,7 +24123,7 @@
     </row>
     <row r="168" spans="2:8">
       <c r="B168" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C168" s="18"/>
       <c r="D168" s="18"/>
@@ -22249,7 +24134,7 @@
     </row>
     <row r="169" spans="2:8">
       <c r="B169" s="27" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C169" s="18"/>
       <c r="D169" s="18"/>
@@ -22260,7 +24145,7 @@
     </row>
     <row r="170" spans="2:8">
       <c r="B170" s="27" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C170" s="18"/>
       <c r="D170" s="18"/>
@@ -22271,7 +24156,7 @@
     </row>
     <row r="171" spans="2:8" ht="15">
       <c r="B171" s="80" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="172" spans="2:8" ht="14.25">
@@ -22279,22 +24164,22 @@
     </row>
     <row r="188" spans="2:13">
       <c r="B188" s="31" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="189" spans="2:13" ht="14.25">
       <c r="B189" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="190" spans="2:13">
       <c r="B190" s="24" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="191" spans="2:13">
       <c r="B191" s="27" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C191" s="18"/>
       <c r="D191" s="18"/>
@@ -22310,7 +24195,7 @@
     </row>
     <row r="192" spans="2:13">
       <c r="B192" s="82" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C192" s="18"/>
       <c r="D192" s="18"/>
@@ -22326,7 +24211,7 @@
     </row>
     <row r="193" spans="2:16">
       <c r="B193" s="27" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C193" s="18"/>
       <c r="D193" s="18"/>
@@ -22342,7 +24227,7 @@
     </row>
     <row r="194" spans="2:16">
       <c r="B194" s="27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C194" s="18"/>
       <c r="D194" s="18"/>
@@ -22358,7 +24243,7 @@
     </row>
     <row r="195" spans="2:16">
       <c r="B195" s="27" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C195" s="18"/>
       <c r="D195" s="18"/>
@@ -22374,7 +24259,7 @@
     </row>
     <row r="196" spans="2:16">
       <c r="B196" s="27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C196" s="18"/>
       <c r="D196" s="18"/>
@@ -22390,7 +24275,7 @@
     </row>
     <row r="197" spans="2:16">
       <c r="B197" s="27" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C197" s="18"/>
       <c r="D197" s="18"/>
@@ -22406,7 +24291,7 @@
     </row>
     <row r="198" spans="2:16">
       <c r="B198" s="27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C198" s="18"/>
       <c r="D198" s="18"/>
@@ -22422,7 +24307,7 @@
     </row>
     <row r="199" spans="2:16">
       <c r="B199" s="27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C199" s="18"/>
       <c r="D199" s="18"/>
@@ -22454,12 +24339,12 @@
     </row>
     <row r="201" spans="2:16">
       <c r="B201" s="24" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="202" spans="2:16">
       <c r="B202" s="27" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C202" s="18"/>
       <c r="D202" s="18"/>
@@ -22478,7 +24363,7 @@
     </row>
     <row r="203" spans="2:16">
       <c r="B203" s="27" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C203" s="18"/>
       <c r="D203" s="18"/>
@@ -22497,7 +24382,7 @@
     </row>
     <row r="204" spans="2:16">
       <c r="B204" s="24" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="206" spans="2:16">
@@ -22507,12 +24392,1223 @@
     </row>
     <row r="207" spans="2:16">
       <c r="B207" s="24" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="208" spans="2:16">
       <c r="B208" s="24" t="s">
-        <v>782</v>
+        <v>781</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" ht="25.5">
+      <c r="A210" s="29" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" ht="14.25">
+      <c r="B211" s="95" t="s">
+        <v>957</v>
+      </c>
+      <c r="C211" s="96"/>
+      <c r="D211" s="96"/>
+      <c r="E211" s="96"/>
+      <c r="F211" s="96"/>
+      <c r="G211" s="96"/>
+      <c r="H211" s="96"/>
+      <c r="I211" s="96"/>
+      <c r="J211" s="96"/>
+      <c r="K211" s="96"/>
+      <c r="L211" s="96"/>
+      <c r="M211" s="96"/>
+      <c r="N211" s="96"/>
+    </row>
+    <row r="212" spans="1:14" ht="14.25">
+      <c r="B212" s="97" t="s">
+        <v>964</v>
+      </c>
+      <c r="C212" s="96"/>
+      <c r="D212" s="96"/>
+      <c r="E212" s="96"/>
+      <c r="F212" s="96"/>
+      <c r="G212" s="96"/>
+      <c r="H212" s="96"/>
+      <c r="I212" s="96"/>
+      <c r="J212" s="96"/>
+      <c r="K212" s="96"/>
+      <c r="L212" s="96"/>
+      <c r="M212" s="96"/>
+      <c r="N212" s="96"/>
+    </row>
+    <row r="213" spans="1:14" ht="14.25">
+      <c r="B213" s="98" t="s">
+        <v>962</v>
+      </c>
+      <c r="C213" s="96"/>
+      <c r="D213" s="96"/>
+      <c r="E213" s="96"/>
+      <c r="F213" s="96"/>
+      <c r="G213" s="96"/>
+      <c r="H213" s="96"/>
+      <c r="I213" s="96"/>
+      <c r="J213" s="96"/>
+      <c r="K213" s="96"/>
+      <c r="L213" s="96"/>
+      <c r="M213" s="96"/>
+      <c r="N213" s="96"/>
+    </row>
+    <row r="214" spans="1:14" ht="14.25">
+      <c r="B214" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="C214" s="96"/>
+      <c r="D214" s="96"/>
+      <c r="E214" s="96"/>
+      <c r="F214" s="96"/>
+      <c r="G214" s="96"/>
+      <c r="H214" s="96"/>
+      <c r="I214" s="96"/>
+      <c r="J214" s="96"/>
+      <c r="K214" s="96"/>
+      <c r="L214" s="96"/>
+      <c r="M214" s="96"/>
+      <c r="N214" s="96"/>
+    </row>
+    <row r="215" spans="1:14" ht="14.25">
+      <c r="B215" s="98" t="s">
+        <v>960</v>
+      </c>
+      <c r="C215" s="96"/>
+      <c r="D215" s="96"/>
+      <c r="E215" s="96"/>
+      <c r="F215" s="96"/>
+      <c r="G215" s="96"/>
+      <c r="H215" s="96"/>
+      <c r="I215" s="96"/>
+      <c r="J215" s="96"/>
+      <c r="K215" s="96"/>
+      <c r="L215" s="96"/>
+      <c r="M215" s="96"/>
+      <c r="N215" s="96"/>
+    </row>
+    <row r="216" spans="1:14" ht="14.25">
+      <c r="B216" s="98" t="s">
+        <v>961</v>
+      </c>
+      <c r="C216" s="96"/>
+      <c r="D216" s="96"/>
+      <c r="E216" s="96"/>
+      <c r="F216" s="96"/>
+      <c r="G216" s="96"/>
+      <c r="H216" s="96"/>
+      <c r="I216" s="96"/>
+      <c r="J216" s="96"/>
+      <c r="K216" s="96"/>
+      <c r="L216" s="96"/>
+      <c r="M216" s="96"/>
+      <c r="N216" s="96"/>
+    </row>
+    <row r="217" spans="1:14" ht="14.25">
+      <c r="B217" s="98" t="s">
+        <v>958</v>
+      </c>
+      <c r="C217" s="96"/>
+      <c r="D217" s="96"/>
+      <c r="E217" s="96"/>
+      <c r="F217" s="96"/>
+      <c r="G217" s="96"/>
+      <c r="H217" s="96"/>
+      <c r="I217" s="96"/>
+      <c r="J217" s="96"/>
+      <c r="K217" s="96"/>
+      <c r="L217" s="96"/>
+      <c r="M217" s="96"/>
+      <c r="N217" s="96"/>
+    </row>
+    <row r="219" spans="1:14" ht="26.25">
+      <c r="A219" s="99" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" ht="14.25">
+      <c r="B220" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
+      <c r="B221" s="24" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
+      <c r="B222" s="24" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
+      <c r="B224" s="31" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="225" spans="2:13">
+      <c r="B225" s="24" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="226" spans="2:13">
+      <c r="B226" s="24" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="227" spans="2:13">
+      <c r="B227" s="31" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="228" spans="2:13">
+      <c r="B228" s="24" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="229" spans="2:13">
+      <c r="B229" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C229" s="18"/>
+      <c r="D229" s="18"/>
+      <c r="E229" s="18"/>
+      <c r="F229" s="18"/>
+      <c r="G229" s="18"/>
+      <c r="H229" s="18"/>
+      <c r="I229" s="18"/>
+      <c r="J229" s="18"/>
+      <c r="K229" s="18"/>
+      <c r="L229" s="18"/>
+      <c r="M229" s="18"/>
+    </row>
+    <row r="230" spans="2:13">
+      <c r="B230" s="27" t="s">
+        <v>972</v>
+      </c>
+      <c r="C230" s="18"/>
+      <c r="D230" s="18"/>
+      <c r="E230" s="18"/>
+      <c r="F230" s="18"/>
+      <c r="G230" s="18"/>
+      <c r="H230" s="18"/>
+      <c r="I230" s="18"/>
+      <c r="J230" s="18"/>
+      <c r="K230" s="18"/>
+      <c r="L230" s="18"/>
+      <c r="M230" s="18"/>
+    </row>
+    <row r="231" spans="2:13">
+      <c r="B231" s="27"/>
+      <c r="C231" s="18"/>
+      <c r="D231" s="18"/>
+      <c r="E231" s="18"/>
+      <c r="F231" s="18"/>
+      <c r="G231" s="18"/>
+      <c r="H231" s="18"/>
+      <c r="I231" s="18"/>
+      <c r="J231" s="18"/>
+      <c r="K231" s="18"/>
+      <c r="L231" s="18"/>
+      <c r="M231" s="18"/>
+    </row>
+    <row r="232" spans="2:13">
+      <c r="B232" s="27"/>
+      <c r="C232" s="18" t="s">
+        <v>973</v>
+      </c>
+      <c r="D232" s="18"/>
+      <c r="E232" s="18"/>
+      <c r="F232" s="18"/>
+      <c r="G232" s="18"/>
+      <c r="H232" s="18"/>
+      <c r="I232" s="18"/>
+      <c r="J232" s="18"/>
+      <c r="K232" s="18"/>
+      <c r="L232" s="18"/>
+      <c r="M232" s="18"/>
+    </row>
+    <row r="233" spans="2:13">
+      <c r="B233" s="27"/>
+      <c r="C233" s="18"/>
+      <c r="D233" s="18"/>
+      <c r="E233" s="18"/>
+      <c r="F233" s="18"/>
+      <c r="G233" s="18"/>
+      <c r="H233" s="18"/>
+      <c r="I233" s="18"/>
+      <c r="J233" s="18"/>
+      <c r="K233" s="18"/>
+      <c r="L233" s="18"/>
+      <c r="M233" s="18"/>
+    </row>
+    <row r="234" spans="2:13">
+      <c r="B234" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C234" s="18"/>
+      <c r="D234" s="18"/>
+      <c r="E234" s="18"/>
+      <c r="F234" s="18"/>
+      <c r="G234" s="18"/>
+      <c r="H234" s="18"/>
+      <c r="I234" s="18"/>
+      <c r="J234" s="18"/>
+      <c r="K234" s="18"/>
+      <c r="L234" s="18"/>
+      <c r="M234" s="18"/>
+    </row>
+    <row r="235" spans="2:13">
+      <c r="B235" s="27" t="s">
+        <v>974</v>
+      </c>
+      <c r="C235" s="18"/>
+      <c r="D235" s="18"/>
+      <c r="E235" s="18"/>
+      <c r="F235" s="18"/>
+      <c r="G235" s="18"/>
+      <c r="H235" s="18"/>
+      <c r="I235" s="18"/>
+      <c r="J235" s="18"/>
+      <c r="K235" s="18"/>
+      <c r="L235" s="18"/>
+      <c r="M235" s="18"/>
+    </row>
+    <row r="236" spans="2:13">
+      <c r="B236" s="27"/>
+      <c r="C236" s="18"/>
+      <c r="D236" s="18"/>
+      <c r="E236" s="18"/>
+      <c r="F236" s="18"/>
+      <c r="G236" s="18"/>
+      <c r="H236" s="18"/>
+      <c r="I236" s="18"/>
+      <c r="J236" s="18"/>
+      <c r="K236" s="18"/>
+      <c r="L236" s="18"/>
+      <c r="M236" s="18"/>
+    </row>
+    <row r="237" spans="2:13">
+      <c r="B237" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C237" s="18"/>
+      <c r="D237" s="18"/>
+      <c r="E237" s="18"/>
+      <c r="F237" s="18"/>
+      <c r="G237" s="18"/>
+      <c r="H237" s="18"/>
+      <c r="I237" s="18"/>
+      <c r="J237" s="18"/>
+      <c r="K237" s="18"/>
+      <c r="L237" s="18"/>
+      <c r="M237" s="18"/>
+    </row>
+    <row r="238" spans="2:13">
+      <c r="B238" s="27"/>
+      <c r="C238" s="18"/>
+      <c r="D238" s="18"/>
+      <c r="E238" s="18"/>
+      <c r="F238" s="18"/>
+      <c r="G238" s="18"/>
+      <c r="H238" s="18"/>
+      <c r="I238" s="18"/>
+      <c r="J238" s="18"/>
+      <c r="K238" s="18"/>
+      <c r="L238" s="18"/>
+      <c r="M238" s="18"/>
+    </row>
+    <row r="239" spans="2:13">
+      <c r="B239" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C239" s="18"/>
+      <c r="D239" s="18"/>
+      <c r="E239" s="18"/>
+      <c r="F239" s="18"/>
+      <c r="G239" s="18"/>
+      <c r="H239" s="18"/>
+      <c r="I239" s="18"/>
+      <c r="J239" s="18"/>
+      <c r="K239" s="18"/>
+      <c r="L239" s="18"/>
+      <c r="M239" s="18"/>
+    </row>
+    <row r="240" spans="2:13">
+      <c r="B240" s="27" t="s">
+        <v>975</v>
+      </c>
+      <c r="C240" s="18"/>
+      <c r="D240" s="18"/>
+      <c r="E240" s="18"/>
+      <c r="F240" s="18"/>
+      <c r="G240" s="18"/>
+      <c r="H240" s="18"/>
+      <c r="I240" s="18"/>
+      <c r="J240" s="18"/>
+      <c r="K240" s="18"/>
+      <c r="L240" s="18"/>
+      <c r="M240" s="18"/>
+    </row>
+    <row r="241" spans="2:13">
+      <c r="B241" s="27" t="s">
+        <v>976</v>
+      </c>
+      <c r="C241" s="18"/>
+      <c r="D241" s="18"/>
+      <c r="E241" s="18"/>
+      <c r="F241" s="18"/>
+      <c r="G241" s="18"/>
+      <c r="H241" s="18"/>
+      <c r="I241" s="18"/>
+      <c r="J241" s="18"/>
+      <c r="K241" s="18"/>
+      <c r="L241" s="18"/>
+      <c r="M241" s="18"/>
+    </row>
+    <row r="242" spans="2:13">
+      <c r="B242" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C242" s="18"/>
+      <c r="D242" s="18"/>
+      <c r="E242" s="18"/>
+      <c r="F242" s="18"/>
+      <c r="G242" s="18"/>
+      <c r="H242" s="18"/>
+      <c r="I242" s="18"/>
+      <c r="J242" s="18"/>
+      <c r="K242" s="18"/>
+      <c r="L242" s="18"/>
+      <c r="M242" s="18"/>
+    </row>
+    <row r="243" spans="2:13">
+      <c r="B243" s="27"/>
+      <c r="C243" s="18"/>
+      <c r="D243" s="18"/>
+      <c r="E243" s="18"/>
+      <c r="F243" s="18"/>
+      <c r="G243" s="18"/>
+      <c r="H243" s="18"/>
+      <c r="I243" s="18"/>
+      <c r="J243" s="18"/>
+      <c r="K243" s="18"/>
+      <c r="L243" s="18"/>
+      <c r="M243" s="18"/>
+    </row>
+    <row r="244" spans="2:13">
+      <c r="B244" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C244" s="18"/>
+      <c r="D244" s="18"/>
+      <c r="E244" s="18"/>
+      <c r="F244" s="18"/>
+      <c r="G244" s="18"/>
+      <c r="H244" s="18"/>
+      <c r="I244" s="18"/>
+      <c r="J244" s="18"/>
+      <c r="K244" s="18"/>
+      <c r="L244" s="18"/>
+      <c r="M244" s="18"/>
+    </row>
+    <row r="245" spans="2:13">
+      <c r="B245" s="24" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="246" spans="2:13">
+      <c r="B246" s="24" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="247" spans="2:13">
+      <c r="B247" s="24" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="248" spans="2:13">
+      <c r="B248" s="24" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="249" spans="2:13">
+      <c r="B249" s="24" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="250" spans="2:13">
+      <c r="B250" s="24" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="251" spans="2:13">
+      <c r="B251" s="27" t="s">
+        <v>985</v>
+      </c>
+      <c r="C251" s="18"/>
+      <c r="D251" s="18"/>
+      <c r="E251" s="18"/>
+      <c r="F251" s="18"/>
+      <c r="G251" s="18"/>
+      <c r="H251" s="18"/>
+      <c r="I251" s="18"/>
+      <c r="J251" s="18"/>
+      <c r="K251" s="18"/>
+      <c r="L251" s="18"/>
+    </row>
+    <row r="252" spans="2:13">
+      <c r="B252" s="27" t="s">
+        <v>986</v>
+      </c>
+      <c r="C252" s="18"/>
+      <c r="D252" s="18"/>
+      <c r="E252" s="18"/>
+      <c r="F252" s="18"/>
+      <c r="G252" s="18"/>
+      <c r="H252" s="18"/>
+      <c r="I252" s="18"/>
+      <c r="J252" s="18"/>
+      <c r="K252" s="18"/>
+      <c r="L252" s="18"/>
+    </row>
+    <row r="253" spans="2:13">
+      <c r="B253" s="27" t="s">
+        <v>987</v>
+      </c>
+      <c r="C253" s="18"/>
+      <c r="D253" s="18"/>
+      <c r="E253" s="18"/>
+      <c r="F253" s="18"/>
+      <c r="G253" s="18"/>
+      <c r="H253" s="18"/>
+      <c r="I253" s="18"/>
+      <c r="J253" s="18"/>
+      <c r="K253" s="18"/>
+      <c r="L253" s="18"/>
+    </row>
+    <row r="254" spans="2:13">
+      <c r="B254" s="27" t="s">
+        <v>988</v>
+      </c>
+      <c r="C254" s="18"/>
+      <c r="D254" s="18"/>
+      <c r="E254" s="18"/>
+      <c r="F254" s="18"/>
+      <c r="G254" s="18"/>
+      <c r="H254" s="18"/>
+      <c r="I254" s="18"/>
+      <c r="J254" s="18"/>
+      <c r="K254" s="18"/>
+      <c r="L254" s="18"/>
+    </row>
+    <row r="255" spans="2:13">
+      <c r="B255" s="27" t="s">
+        <v>989</v>
+      </c>
+      <c r="C255" s="18"/>
+      <c r="D255" s="18"/>
+      <c r="E255" s="18"/>
+      <c r="F255" s="18"/>
+      <c r="G255" s="18"/>
+      <c r="H255" s="18"/>
+      <c r="I255" s="18"/>
+      <c r="J255" s="18"/>
+      <c r="K255" s="18"/>
+      <c r="L255" s="18"/>
+    </row>
+    <row r="256" spans="2:13">
+      <c r="B256" s="27" t="s">
+        <v>990</v>
+      </c>
+      <c r="C256" s="18"/>
+      <c r="D256" s="18"/>
+      <c r="E256" s="18"/>
+      <c r="F256" s="18"/>
+      <c r="G256" s="18"/>
+      <c r="H256" s="18"/>
+      <c r="I256" s="18"/>
+      <c r="J256" s="18"/>
+      <c r="K256" s="18"/>
+      <c r="L256" s="18"/>
+    </row>
+    <row r="257" spans="2:12">
+      <c r="B257" s="27" t="s">
+        <v>991</v>
+      </c>
+      <c r="C257" s="18"/>
+      <c r="D257" s="18"/>
+      <c r="E257" s="18"/>
+      <c r="F257" s="18"/>
+      <c r="G257" s="18"/>
+      <c r="H257" s="18"/>
+      <c r="I257" s="18"/>
+      <c r="J257" s="18"/>
+      <c r="K257" s="18"/>
+      <c r="L257" s="18"/>
+    </row>
+    <row r="258" spans="2:12">
+      <c r="B258" s="27" t="s">
+        <v>992</v>
+      </c>
+      <c r="C258" s="18"/>
+      <c r="D258" s="18"/>
+      <c r="E258" s="18"/>
+      <c r="F258" s="18"/>
+      <c r="G258" s="18"/>
+      <c r="H258" s="18"/>
+      <c r="I258" s="18"/>
+      <c r="J258" s="18"/>
+      <c r="K258" s="18"/>
+      <c r="L258" s="18"/>
+    </row>
+    <row r="259" spans="2:12">
+      <c r="B259" s="27" t="s">
+        <v>993</v>
+      </c>
+      <c r="C259" s="18"/>
+      <c r="D259" s="18"/>
+      <c r="E259" s="18"/>
+      <c r="F259" s="18"/>
+      <c r="G259" s="18"/>
+      <c r="H259" s="18"/>
+      <c r="I259" s="18"/>
+      <c r="J259" s="18"/>
+      <c r="K259" s="18"/>
+      <c r="L259" s="18"/>
+    </row>
+    <row r="260" spans="2:12">
+      <c r="B260" s="27" t="s">
+        <v>994</v>
+      </c>
+      <c r="C260" s="18"/>
+      <c r="D260" s="18"/>
+      <c r="E260" s="18"/>
+      <c r="F260" s="18"/>
+      <c r="G260" s="18"/>
+      <c r="H260" s="18"/>
+      <c r="I260" s="18"/>
+      <c r="J260" s="18"/>
+      <c r="K260" s="18"/>
+      <c r="L260" s="18"/>
+    </row>
+    <row r="261" spans="2:12">
+      <c r="B261" s="27" t="s">
+        <v>995</v>
+      </c>
+      <c r="C261" s="18"/>
+      <c r="D261" s="18"/>
+      <c r="E261" s="18"/>
+      <c r="F261" s="18"/>
+      <c r="G261" s="18"/>
+      <c r="H261" s="18"/>
+      <c r="I261" s="18"/>
+      <c r="J261" s="18"/>
+      <c r="K261" s="18"/>
+      <c r="L261" s="18"/>
+    </row>
+    <row r="262" spans="2:12">
+      <c r="B262" s="27" t="s">
+        <v>996</v>
+      </c>
+      <c r="C262" s="18"/>
+      <c r="D262" s="18"/>
+      <c r="E262" s="18"/>
+      <c r="F262" s="18"/>
+      <c r="G262" s="18"/>
+      <c r="H262" s="18"/>
+      <c r="I262" s="18"/>
+      <c r="J262" s="18"/>
+      <c r="K262" s="18"/>
+      <c r="L262" s="18"/>
+    </row>
+    <row r="263" spans="2:12">
+      <c r="B263" s="27" t="s">
+        <v>997</v>
+      </c>
+      <c r="C263" s="18"/>
+      <c r="D263" s="18"/>
+      <c r="E263" s="18"/>
+      <c r="F263" s="18"/>
+      <c r="G263" s="18"/>
+      <c r="H263" s="18"/>
+      <c r="I263" s="18"/>
+      <c r="J263" s="18"/>
+      <c r="K263" s="18"/>
+      <c r="L263" s="18"/>
+    </row>
+    <row r="264" spans="2:12">
+      <c r="B264" s="27" t="s">
+        <v>998</v>
+      </c>
+      <c r="C264" s="18"/>
+      <c r="D264" s="18"/>
+      <c r="E264" s="18"/>
+      <c r="F264" s="18"/>
+      <c r="G264" s="18"/>
+      <c r="H264" s="18"/>
+      <c r="I264" s="18"/>
+      <c r="J264" s="18"/>
+      <c r="K264" s="18"/>
+      <c r="L264" s="18"/>
+    </row>
+    <row r="265" spans="2:12">
+      <c r="B265" s="27" t="s">
+        <v>999</v>
+      </c>
+      <c r="C265" s="18"/>
+      <c r="D265" s="18"/>
+      <c r="E265" s="18"/>
+      <c r="F265" s="18"/>
+      <c r="G265" s="18"/>
+      <c r="H265" s="18"/>
+      <c r="I265" s="18"/>
+      <c r="J265" s="18"/>
+      <c r="K265" s="18"/>
+      <c r="L265" s="18"/>
+    </row>
+    <row r="266" spans="2:12">
+      <c r="B266" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C266" s="18"/>
+      <c r="D266" s="18"/>
+      <c r="E266" s="18"/>
+      <c r="F266" s="18"/>
+      <c r="G266" s="18"/>
+      <c r="H266" s="18"/>
+      <c r="I266" s="18"/>
+      <c r="J266" s="18"/>
+      <c r="K266" s="18"/>
+      <c r="L266" s="18"/>
+    </row>
+    <row r="267" spans="2:12">
+      <c r="B267" s="27"/>
+      <c r="C267" s="18"/>
+      <c r="D267" s="18"/>
+      <c r="E267" s="18"/>
+      <c r="F267" s="18"/>
+      <c r="G267" s="18"/>
+      <c r="H267" s="18"/>
+      <c r="I267" s="18"/>
+      <c r="J267" s="18"/>
+      <c r="K267" s="18"/>
+      <c r="L267" s="18"/>
+    </row>
+    <row r="268" spans="2:12">
+      <c r="B268" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C268" s="18"/>
+      <c r="D268" s="18"/>
+      <c r="E268" s="18"/>
+      <c r="F268" s="18"/>
+      <c r="G268" s="18"/>
+      <c r="H268" s="18"/>
+      <c r="I268" s="18"/>
+      <c r="J268" s="18"/>
+      <c r="K268" s="18"/>
+      <c r="L268" s="18"/>
+    </row>
+    <row r="269" spans="2:12">
+      <c r="B269" s="24" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="270" spans="2:12">
+      <c r="B270" s="27" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C270" s="18"/>
+      <c r="D270" s="18"/>
+      <c r="E270" s="18"/>
+      <c r="F270" s="18"/>
+      <c r="G270" s="18"/>
+      <c r="H270" s="18"/>
+      <c r="I270" s="18"/>
+      <c r="J270" s="18"/>
+      <c r="K270" s="18"/>
+      <c r="L270" s="18"/>
+    </row>
+    <row r="271" spans="2:12">
+      <c r="B271" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C271" s="18"/>
+      <c r="D271" s="18"/>
+      <c r="E271" s="18"/>
+      <c r="F271" s="18"/>
+      <c r="G271" s="18"/>
+      <c r="H271" s="18"/>
+      <c r="I271" s="18"/>
+      <c r="J271" s="18"/>
+      <c r="K271" s="18"/>
+      <c r="L271" s="18"/>
+    </row>
+    <row r="272" spans="2:12">
+      <c r="B272" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C272" s="18"/>
+      <c r="D272" s="18"/>
+      <c r="E272" s="18"/>
+      <c r="F272" s="18"/>
+      <c r="G272" s="18"/>
+      <c r="H272" s="18"/>
+      <c r="I272" s="18"/>
+      <c r="J272" s="18"/>
+      <c r="K272" s="18"/>
+      <c r="L272" s="18"/>
+    </row>
+    <row r="273" spans="2:12">
+      <c r="B273" s="27" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C273" s="18"/>
+      <c r="D273" s="18"/>
+      <c r="E273" s="18"/>
+      <c r="F273" s="18"/>
+      <c r="G273" s="18"/>
+      <c r="H273" s="18"/>
+      <c r="I273" s="18"/>
+      <c r="J273" s="18"/>
+      <c r="K273" s="18"/>
+      <c r="L273" s="18"/>
+    </row>
+    <row r="274" spans="2:12">
+      <c r="B274" s="27" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C274" s="18"/>
+      <c r="D274" s="18"/>
+      <c r="E274" s="18"/>
+      <c r="F274" s="18"/>
+      <c r="G274" s="18"/>
+      <c r="H274" s="18"/>
+      <c r="I274" s="18"/>
+      <c r="J274" s="18"/>
+      <c r="K274" s="18"/>
+      <c r="L274" s="18"/>
+    </row>
+    <row r="275" spans="2:12">
+      <c r="B275" s="27" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C275" s="18"/>
+      <c r="D275" s="18"/>
+      <c r="E275" s="18"/>
+      <c r="F275" s="18"/>
+      <c r="G275" s="18"/>
+      <c r="H275" s="18"/>
+      <c r="I275" s="18"/>
+      <c r="J275" s="18"/>
+      <c r="K275" s="18"/>
+      <c r="L275" s="18"/>
+    </row>
+    <row r="276" spans="2:12">
+      <c r="B276" s="27" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C276" s="18"/>
+      <c r="D276" s="18"/>
+      <c r="E276" s="18"/>
+      <c r="F276" s="18"/>
+      <c r="G276" s="18"/>
+      <c r="H276" s="18"/>
+      <c r="I276" s="18"/>
+      <c r="J276" s="18"/>
+      <c r="K276" s="18"/>
+      <c r="L276" s="18"/>
+    </row>
+    <row r="277" spans="2:12">
+      <c r="B277" s="27" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C277" s="18"/>
+      <c r="D277" s="18"/>
+      <c r="E277" s="18"/>
+      <c r="F277" s="18"/>
+      <c r="G277" s="18"/>
+      <c r="H277" s="18"/>
+      <c r="I277" s="18"/>
+      <c r="J277" s="18"/>
+      <c r="K277" s="18"/>
+      <c r="L277" s="18"/>
+    </row>
+    <row r="278" spans="2:12">
+      <c r="B278" s="27" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C278" s="18"/>
+      <c r="D278" s="18"/>
+      <c r="E278" s="18"/>
+      <c r="F278" s="18"/>
+      <c r="G278" s="18"/>
+      <c r="H278" s="18"/>
+      <c r="I278" s="18"/>
+      <c r="J278" s="18"/>
+      <c r="K278" s="18"/>
+      <c r="L278" s="18"/>
+    </row>
+    <row r="279" spans="2:12">
+      <c r="B279" s="27" t="s">
+        <v>999</v>
+      </c>
+      <c r="C279" s="18"/>
+      <c r="D279" s="18"/>
+      <c r="E279" s="18"/>
+      <c r="F279" s="18"/>
+      <c r="G279" s="18"/>
+      <c r="H279" s="18"/>
+      <c r="I279" s="18"/>
+      <c r="J279" s="18"/>
+      <c r="K279" s="18"/>
+      <c r="L279" s="18"/>
+    </row>
+    <row r="280" spans="2:12">
+      <c r="B280" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C280" s="18"/>
+      <c r="D280" s="18"/>
+      <c r="E280" s="18"/>
+      <c r="F280" s="18"/>
+      <c r="G280" s="18"/>
+      <c r="H280" s="18"/>
+      <c r="I280" s="18"/>
+      <c r="J280" s="18"/>
+      <c r="K280" s="18"/>
+      <c r="L280" s="18"/>
+    </row>
+    <row r="281" spans="2:12">
+      <c r="B281" s="27" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C281" s="18"/>
+      <c r="D281" s="18"/>
+      <c r="E281" s="18"/>
+      <c r="F281" s="18"/>
+      <c r="G281" s="18"/>
+      <c r="H281" s="18"/>
+      <c r="I281" s="18"/>
+      <c r="J281" s="18"/>
+      <c r="K281" s="18"/>
+      <c r="L281" s="18"/>
+    </row>
+    <row r="282" spans="2:12">
+      <c r="B282" s="27" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C282" s="18"/>
+      <c r="D282" s="18"/>
+      <c r="E282" s="18"/>
+      <c r="F282" s="18"/>
+      <c r="G282" s="18"/>
+      <c r="H282" s="18"/>
+      <c r="I282" s="18"/>
+      <c r="J282" s="18"/>
+      <c r="K282" s="18"/>
+      <c r="L282" s="18"/>
+    </row>
+    <row r="283" spans="2:12">
+      <c r="B283" s="27" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C283" s="18"/>
+      <c r="D283" s="18"/>
+      <c r="E283" s="18"/>
+      <c r="F283" s="18"/>
+      <c r="G283" s="18"/>
+      <c r="H283" s="18"/>
+      <c r="I283" s="18"/>
+      <c r="J283" s="18"/>
+      <c r="K283" s="18"/>
+      <c r="L283" s="18"/>
+    </row>
+    <row r="284" spans="2:12">
+      <c r="B284" s="27" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C284" s="18"/>
+      <c r="D284" s="18"/>
+      <c r="E284" s="18"/>
+      <c r="F284" s="18"/>
+      <c r="G284" s="18"/>
+      <c r="H284" s="18"/>
+      <c r="I284" s="18"/>
+      <c r="J284" s="18"/>
+      <c r="K284" s="18"/>
+      <c r="L284" s="18"/>
+    </row>
+    <row r="285" spans="2:12">
+      <c r="B285" s="27" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C285" s="18"/>
+      <c r="D285" s="18"/>
+      <c r="E285" s="18"/>
+      <c r="F285" s="18"/>
+      <c r="G285" s="18"/>
+      <c r="H285" s="18"/>
+      <c r="I285" s="18"/>
+      <c r="J285" s="18"/>
+      <c r="K285" s="18"/>
+      <c r="L285" s="18"/>
+    </row>
+    <row r="286" spans="2:12">
+      <c r="B286" s="27" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C286" s="18"/>
+      <c r="D286" s="18"/>
+      <c r="E286" s="18"/>
+      <c r="F286" s="18"/>
+      <c r="G286" s="18"/>
+      <c r="H286" s="18"/>
+      <c r="I286" s="18"/>
+      <c r="J286" s="18"/>
+      <c r="K286" s="18"/>
+      <c r="L286" s="18"/>
+    </row>
+    <row r="287" spans="2:12">
+      <c r="B287" s="27" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C287" s="18"/>
+      <c r="D287" s="18"/>
+      <c r="E287" s="18"/>
+      <c r="F287" s="18"/>
+      <c r="G287" s="18"/>
+      <c r="H287" s="18"/>
+      <c r="I287" s="18"/>
+      <c r="J287" s="18"/>
+      <c r="K287" s="18"/>
+      <c r="L287" s="18"/>
+    </row>
+    <row r="288" spans="2:12">
+      <c r="B288" s="27" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C288" s="18"/>
+      <c r="D288" s="18"/>
+      <c r="E288" s="18"/>
+      <c r="F288" s="18"/>
+      <c r="G288" s="18"/>
+      <c r="H288" s="18"/>
+      <c r="I288" s="18"/>
+      <c r="J288" s="18"/>
+      <c r="K288" s="18"/>
+      <c r="L288" s="18"/>
+    </row>
+    <row r="289" spans="2:12">
+      <c r="B289" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C289" s="18"/>
+      <c r="D289" s="18"/>
+      <c r="E289" s="18"/>
+      <c r="F289" s="18"/>
+      <c r="G289" s="18"/>
+      <c r="H289" s="18"/>
+      <c r="I289" s="18"/>
+      <c r="J289" s="18"/>
+      <c r="K289" s="18"/>
+      <c r="L289" s="18"/>
+    </row>
+    <row r="290" spans="2:12">
+      <c r="B290" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C290" s="18"/>
+      <c r="D290" s="18"/>
+      <c r="E290" s="18"/>
+      <c r="F290" s="18"/>
+      <c r="G290" s="18"/>
+      <c r="H290" s="18"/>
+      <c r="I290" s="18"/>
+      <c r="J290" s="18"/>
+      <c r="K290" s="18"/>
+      <c r="L290" s="18"/>
+    </row>
+    <row r="291" spans="2:12">
+      <c r="B291" s="24" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="292" spans="2:12">
+      <c r="B292" s="27" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C292" s="18"/>
+      <c r="D292" s="18"/>
+      <c r="E292" s="18"/>
+      <c r="F292" s="18"/>
+      <c r="G292" s="18"/>
+      <c r="H292" s="18"/>
+      <c r="I292" s="18"/>
+      <c r="J292" s="18"/>
+      <c r="K292" s="18"/>
+      <c r="L292" s="18"/>
+    </row>
+    <row r="293" spans="2:12">
+      <c r="B293" s="27" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C293" s="18"/>
+      <c r="D293" s="18"/>
+      <c r="E293" s="18"/>
+      <c r="F293" s="18"/>
+      <c r="G293" s="18"/>
+      <c r="H293" s="18"/>
+      <c r="I293" s="18"/>
+      <c r="J293" s="18"/>
+      <c r="K293" s="18"/>
+      <c r="L293" s="18"/>
+    </row>
+    <row r="294" spans="2:12">
+      <c r="B294" s="27" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C294" s="18"/>
+      <c r="D294" s="18"/>
+      <c r="E294" s="18"/>
+      <c r="F294" s="18"/>
+      <c r="G294" s="18"/>
+      <c r="H294" s="18"/>
+      <c r="I294" s="18"/>
+      <c r="J294" s="18"/>
+      <c r="K294" s="18"/>
+      <c r="L294" s="18"/>
+    </row>
+    <row r="295" spans="2:12">
+      <c r="B295" s="27" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C295" s="18"/>
+      <c r="D295" s="18"/>
+      <c r="E295" s="18"/>
+      <c r="F295" s="18"/>
+      <c r="G295" s="18"/>
+      <c r="H295" s="18"/>
+      <c r="I295" s="18"/>
+      <c r="J295" s="18"/>
+      <c r="K295" s="18"/>
+      <c r="L295" s="18"/>
+    </row>
+    <row r="296" spans="2:12">
+      <c r="B296" s="27" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C296" s="18"/>
+      <c r="D296" s="18"/>
+      <c r="E296" s="18"/>
+      <c r="F296" s="18"/>
+      <c r="G296" s="18"/>
+      <c r="H296" s="18"/>
+      <c r="I296" s="18"/>
+      <c r="J296" s="18"/>
+      <c r="K296" s="18"/>
+      <c r="L296" s="18"/>
+    </row>
+    <row r="297" spans="2:12">
+      <c r="B297" s="27" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C297" s="18"/>
+      <c r="D297" s="18"/>
+      <c r="E297" s="18"/>
+      <c r="F297" s="18"/>
+      <c r="G297" s="18"/>
+      <c r="H297" s="18"/>
+      <c r="I297" s="18"/>
+      <c r="J297" s="18"/>
+      <c r="K297" s="18"/>
+      <c r="L297" s="18"/>
+    </row>
+    <row r="298" spans="2:12">
+      <c r="B298" s="27" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C298" s="18"/>
+      <c r="D298" s="18"/>
+      <c r="E298" s="18"/>
+      <c r="F298" s="18"/>
+      <c r="G298" s="18"/>
+      <c r="H298" s="18"/>
+      <c r="I298" s="18"/>
+      <c r="J298" s="18"/>
+      <c r="K298" s="18"/>
+      <c r="L298" s="18"/>
+    </row>
+    <row r="299" spans="2:12">
+      <c r="B299" s="27" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C299" s="18"/>
+      <c r="D299" s="18"/>
+      <c r="E299" s="18"/>
+      <c r="F299" s="18"/>
+      <c r="G299" s="18"/>
+      <c r="H299" s="18"/>
+      <c r="I299" s="18"/>
+      <c r="J299" s="18"/>
+      <c r="K299" s="18"/>
+      <c r="L299" s="18"/>
+    </row>
+    <row r="300" spans="2:12">
+      <c r="B300" s="27" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C300" s="18"/>
+      <c r="D300" s="18"/>
+      <c r="E300" s="18"/>
+      <c r="F300" s="18"/>
+      <c r="G300" s="18"/>
+      <c r="H300" s="18"/>
+      <c r="I300" s="18"/>
+      <c r="J300" s="18"/>
+      <c r="K300" s="18"/>
+      <c r="L300" s="18"/>
+    </row>
+    <row r="301" spans="2:12">
+      <c r="B301" s="27" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C301" s="18"/>
+      <c r="D301" s="18"/>
+      <c r="E301" s="18"/>
+      <c r="F301" s="18"/>
+      <c r="G301" s="18"/>
+      <c r="H301" s="18"/>
+      <c r="I301" s="18"/>
+      <c r="J301" s="18"/>
+      <c r="K301" s="18"/>
+      <c r="L301" s="18"/>
+    </row>
+    <row r="302" spans="2:12" ht="21.75">
+      <c r="B302" s="100" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="303" spans="2:12" ht="15">
+      <c r="B303" s="84" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="304" spans="2:12" ht="14.25">
+      <c r="B304"/>
+    </row>
+    <row r="310" spans="2:2" ht="18.75">
+      <c r="B310" s="101" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" ht="15">
+      <c r="B311" s="84" t="s">
+        <v>1032</v>
       </c>
     </row>
   </sheetData>
@@ -22521,315 +25617,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="20.25">
-      <c r="A1" s="30" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="25.5">
-      <c r="A4" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4" s="24"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75">
-      <c r="B5" s="24" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75">
-      <c r="B6" s="24" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75">
-      <c r="B7" s="24" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75">
-      <c r="B8" s="24" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75">
-      <c r="B9" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75">
-      <c r="B10" s="24" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75">
-      <c r="B11" s="24" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75">
-      <c r="B12" s="24" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75">
-      <c r="B13" s="24" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75">
-      <c r="B14" s="24" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75">
-      <c r="B15" s="24" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75">
-      <c r="B16" s="24" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="15.75">
-      <c r="B17" s="24" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="15.75">
-      <c r="B18" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="2:5" ht="15.75">
-      <c r="B19" s="24" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="15.75">
-      <c r="B20" s="24" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="15.75">
-      <c r="B21" s="24" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="15.75">
-      <c r="B22" s="24" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="15.75">
-      <c r="B23" s="24" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="15.75">
-      <c r="B24" s="24" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="15.75">
-      <c r="B25" s="24" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="15.75">
-      <c r="B26" s="24" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="15.75">
-      <c r="B27" s="24" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="15.75">
-      <c r="B28" s="24" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="15.75">
-      <c r="B29" s="24" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="15.75">
-      <c r="B30" s="24" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="15.75">
-      <c r="B31" s="24" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="15.75">
-      <c r="B32" s="24" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="15.75">
-      <c r="B33" s="24" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="15.75">
-      <c r="B34" s="24" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="15.75">
-      <c r="B35" s="24" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" ht="15.75">
-      <c r="B36" s="24" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" ht="15.75">
-      <c r="B37" s="24" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="15.75">
-      <c r="B38" s="24" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="15.75">
-      <c r="B39" s="24" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" ht="15.75">
-      <c r="B40" s="24" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="15.75">
-      <c r="B41" s="24" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" ht="15.75">
-      <c r="B42" s="24" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" ht="15.75">
-      <c r="B43" s="24" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" ht="15.75">
-      <c r="B44" s="24" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" ht="15.75">
-      <c r="B45" s="24" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" ht="15.75">
-      <c r="B46" s="24" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" ht="15.75">
-      <c r="B47" s="24" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" ht="15.75">
-      <c r="B48" s="24" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" ht="15.75">
-      <c r="B49" s="24" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="15.75">
-      <c r="B50" s="24" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" ht="15.75">
-      <c r="B51" s="24" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" ht="15.75">
-      <c r="B52" s="24" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="15.75">
-      <c r="B53" s="24" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" ht="15.75">
-      <c r="B54" s="27" t="s">
-        <v>460</v>
-      </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-    </row>
-    <row r="55" spans="2:4" ht="15.75">
-      <c r="B55" s="24" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" ht="15.75">
-      <c r="B56" s="24" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" ht="15.75">
-      <c r="B57" s="24" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" ht="15.75">
-      <c r="B58" s="24"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>